--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>88869.3121</v>
       </c>
       <c r="G2" t="n">
-        <v>-1542574.309910826</v>
+        <v>5.716000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>74551</v>
       </c>
       <c r="G3" t="n">
-        <v>-1468023.309910826</v>
+        <v>5.705000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -503,6 +509,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>73625.53</v>
       </c>
       <c r="G4" t="n">
-        <v>-1541648.839910826</v>
+        <v>5.695000000000002</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,7 +573,7 @@
         <v>981.87</v>
       </c>
       <c r="G5" t="n">
-        <v>-1541648.839910826</v>
+        <v>5.688500000000002</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,7 +615,7 @@
         <v>7703.9638</v>
       </c>
       <c r="G6" t="n">
-        <v>-1533944.876110826</v>
+        <v>5.683000000000002</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,7 +657,7 @@
         <v>13037.4719</v>
       </c>
       <c r="G7" t="n">
-        <v>-1533944.876110826</v>
+        <v>5.684000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -667,6 +677,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,7 +699,7 @@
         <v>121178.6691</v>
       </c>
       <c r="G8" t="n">
-        <v>-1533944.876110826</v>
+        <v>5.685500000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -706,6 +717,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -727,7 +739,7 @@
         <v>48403.0538</v>
       </c>
       <c r="G9" t="n">
-        <v>-1582347.929910826</v>
+        <v>5.683000000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -745,6 +757,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -766,7 +779,7 @@
         <v>9360.7796</v>
       </c>
       <c r="G10" t="n">
-        <v>-1591708.709510826</v>
+        <v>5.683000000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -784,6 +797,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,7 +819,7 @@
         <v>82713.7901</v>
       </c>
       <c r="G11" t="n">
-        <v>-1508994.919410826</v>
+        <v>5.681000000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -823,6 +837,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -844,7 +859,7 @@
         <v>15402.4935</v>
       </c>
       <c r="G12" t="n">
-        <v>-1493592.425910826</v>
+        <v>5.678000000000003</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -862,6 +877,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,7 +899,7 @@
         <v>36421.4685</v>
       </c>
       <c r="G13" t="n">
-        <v>-1493592.425910826</v>
+        <v>5.674000000000002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -901,6 +917,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -922,7 +939,7 @@
         <v>7809.1147</v>
       </c>
       <c r="G14" t="n">
-        <v>-1485783.311210826</v>
+        <v>5.676500000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -940,6 +957,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -961,7 +979,7 @@
         <v>365398.9648</v>
       </c>
       <c r="G15" t="n">
-        <v>-1851182.276010826</v>
+        <v>5.681000000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -979,6 +997,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,7 +1019,7 @@
         <v>41502.8767</v>
       </c>
       <c r="G16" t="n">
-        <v>-1809679.399310826</v>
+        <v>5.683000000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1018,6 +1037,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1039,7 +1059,7 @@
         <v>346394.1321</v>
       </c>
       <c r="G17" t="n">
-        <v>-1463285.267210826</v>
+        <v>5.688500000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1057,6 +1077,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>-1463275.267210826</v>
+        <v>5.697000000000003</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1096,6 +1117,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,7 +1139,7 @@
         <v>17132.1418</v>
       </c>
       <c r="G19" t="n">
-        <v>-1463275.267210826</v>
+        <v>5.703500000000003</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1135,6 +1157,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1156,7 +1179,7 @@
         <v>1794.1468</v>
       </c>
       <c r="G20" t="n">
-        <v>-1463275.267210826</v>
+        <v>5.712500000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1174,6 +1197,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1195,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-1463265.267210826</v>
+        <v>5.722000000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1213,6 +1237,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1234,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>-1463255.267210826</v>
+        <v>5.731500000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1252,6 +1277,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1273,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-1463245.267210826</v>
+        <v>5.741500000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1291,6 +1317,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1312,7 +1339,7 @@
         <v>15878.2905</v>
       </c>
       <c r="G24" t="n">
-        <v>-1479123.557710826</v>
+        <v>5.751500000000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1330,6 +1357,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,7 +1379,7 @@
         <v>184756.1597</v>
       </c>
       <c r="G25" t="n">
-        <v>-1663879.717410826</v>
+        <v>5.755000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1369,6 +1397,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,7 +1419,7 @@
         <v>5181.3471</v>
       </c>
       <c r="G26" t="n">
-        <v>-1658698.370310826</v>
+        <v>5.757500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1408,6 +1437,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1429,7 +1459,7 @@
         <v>253515.5355</v>
       </c>
       <c r="G27" t="n">
-        <v>-1912213.905810826</v>
+        <v>5.757000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1447,6 +1477,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1468,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-1912223.905810826</v>
+        <v>5.754500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1486,6 +1517,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1507,7 +1539,7 @@
         <v>139181.6428</v>
       </c>
       <c r="G29" t="n">
-        <v>-2051405.548610826</v>
+        <v>5.754</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1525,6 +1557,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,7 +1579,7 @@
         <v>16980.5604</v>
       </c>
       <c r="G30" t="n">
-        <v>-2034424.988210826</v>
+        <v>5.756</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1564,6 +1597,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1585,7 +1619,7 @@
         <v>2139.2226</v>
       </c>
       <c r="G31" t="n">
-        <v>-2036564.210810826</v>
+        <v>5.756</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1603,6 +1637,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,7 +1659,7 @@
         <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>-2026564.210810826</v>
+        <v>5.7575</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1644,6 +1679,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1665,7 +1701,7 @@
         <v>7312.717770034</v>
       </c>
       <c r="G33" t="n">
-        <v>-2019251.493040792</v>
+        <v>5.7595</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1685,6 +1721,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1706,7 +1743,7 @@
         <v>200</v>
       </c>
       <c r="G34" t="n">
-        <v>-2019051.493040792</v>
+        <v>5.761</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1726,6 +1763,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1747,7 +1785,7 @@
         <v>187652.1482</v>
       </c>
       <c r="G35" t="n">
-        <v>-2206703.641240792</v>
+        <v>5.757</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1765,6 +1803,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1786,7 +1825,7 @@
         <v>65.7338</v>
       </c>
       <c r="G36" t="n">
-        <v>-2206637.907440792</v>
+        <v>5.757499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1804,6 +1843,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1825,7 +1865,7 @@
         <v>424</v>
       </c>
       <c r="G37" t="n">
-        <v>-2207061.907440792</v>
+        <v>5.7525</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1843,6 +1883,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1864,7 +1905,7 @@
         <v>2361</v>
       </c>
       <c r="G38" t="n">
-        <v>-2207061.907440792</v>
+        <v>5.745</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1882,6 +1923,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1903,7 +1945,7 @@
         <v>1104</v>
       </c>
       <c r="G39" t="n">
-        <v>-2207061.907440792</v>
+        <v>5.7375</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1921,6 +1963,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1942,7 +1985,7 @@
         <v>69</v>
       </c>
       <c r="G40" t="n">
-        <v>-2206992.907440792</v>
+        <v>5.730500000000001</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1962,6 +2005,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1983,7 +2027,7 @@
         <v>1035</v>
       </c>
       <c r="G41" t="n">
-        <v>-2206992.907440792</v>
+        <v>5.723000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -2003,6 +2047,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2024,7 +2069,7 @@
         <v>61264.3946</v>
       </c>
       <c r="G42" t="n">
-        <v>-2206992.907440792</v>
+        <v>5.714</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2044,6 +2089,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2065,7 +2111,7 @@
         <v>14292.166</v>
       </c>
       <c r="G43" t="n">
-        <v>-2192700.741440792</v>
+        <v>5.706</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2085,6 +2131,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2106,7 +2153,7 @@
         <v>48396.5057</v>
       </c>
       <c r="G44" t="n">
-        <v>-2144304.235740792</v>
+        <v>5.6995</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -2126,6 +2173,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2147,7 +2195,7 @@
         <v>286</v>
       </c>
       <c r="G45" t="n">
-        <v>-2144018.235740792</v>
+        <v>5.7005</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2167,6 +2215,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2188,7 +2237,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-2144018.235740792</v>
+        <v>5.699</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -2208,6 +2257,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2229,7 +2279,7 @@
         <v>138374.1946</v>
       </c>
       <c r="G47" t="n">
-        <v>-2144018.235740792</v>
+        <v>5.7005</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2249,6 +2299,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2270,7 +2321,7 @@
         <v>50577.9842</v>
       </c>
       <c r="G48" t="n">
-        <v>-2194596.219940791</v>
+        <v>5.704</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2288,6 +2339,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,7 +2361,7 @@
         <v>8695.652173913</v>
       </c>
       <c r="G49" t="n">
-        <v>-2185900.567766878</v>
+        <v>5.708</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2327,6 +2379,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2348,7 +2401,7 @@
         <v>122650.953226087</v>
       </c>
       <c r="G50" t="n">
-        <v>-2063249.614540791</v>
+        <v>5.71</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2366,6 +2419,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2387,7 +2441,7 @@
         <v>289030.4553</v>
       </c>
       <c r="G51" t="n">
-        <v>-1774219.159240791</v>
+        <v>5.7165</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2405,6 +2459,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-1774209.159240791</v>
+        <v>5.724500000000001</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -2446,6 +2501,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2467,7 +2523,7 @@
         <v>324507.2212</v>
       </c>
       <c r="G53" t="n">
-        <v>-2098716.380440791</v>
+        <v>5.728000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2487,6 +2543,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2508,7 +2565,7 @@
         <v>184460.5717</v>
       </c>
       <c r="G54" t="n">
-        <v>-2283176.952140791</v>
+        <v>5.729000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -2528,6 +2585,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2549,7 +2607,7 @@
         <v>5206.0901</v>
       </c>
       <c r="G55" t="n">
-        <v>-2288383.042240791</v>
+        <v>5.731</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2567,6 +2625,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2588,7 +2647,7 @@
         <v>54032.139</v>
       </c>
       <c r="G56" t="n">
-        <v>-2234350.903240792</v>
+        <v>5.734500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2608,6 +2667,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2629,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>-2234330.903240792</v>
+        <v>5.740500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2647,6 +2707,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2668,7 +2729,7 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>-2234320.903240792</v>
+        <v>5.7475</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2686,6 +2747,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2707,7 +2769,7 @@
         <v>10704.0804</v>
       </c>
       <c r="G59" t="n">
-        <v>-2245024.983640791</v>
+        <v>5.754</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2725,6 +2787,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2746,7 +2809,7 @@
         <v>309586.6245</v>
       </c>
       <c r="G60" t="n">
-        <v>-1935438.359140791</v>
+        <v>5.761</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2764,6 +2827,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2785,7 +2849,7 @@
         <v>52500</v>
       </c>
       <c r="G61" t="n">
-        <v>-1987938.359140791</v>
+        <v>5.7705</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -2805,6 +2869,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2826,7 +2891,7 @@
         <v>3883398.8008</v>
       </c>
       <c r="G62" t="n">
-        <v>1895460.441659208</v>
+        <v>5.780499999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2844,6 +2909,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2865,7 +2931,7 @@
         <v>1269977.782</v>
       </c>
       <c r="G63" t="n">
-        <v>3165438.223659208</v>
+        <v>5.792999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2883,6 +2949,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2904,7 +2971,7 @@
         <v>1446885.51833258</v>
       </c>
       <c r="G64" t="n">
-        <v>4612323.741991788</v>
+        <v>5.806999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2922,6 +2989,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2943,7 +3011,7 @@
         <v>204582.2699</v>
       </c>
       <c r="G65" t="n">
-        <v>4407741.472091788</v>
+        <v>5.826499999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2961,6 +3029,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2982,7 +3051,7 @@
         <v>1967838.5083</v>
       </c>
       <c r="G66" t="n">
-        <v>6375579.980391788</v>
+        <v>5.845</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3000,6 +3069,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3021,7 +3091,7 @@
         <v>1499820.8045</v>
       </c>
       <c r="G67" t="n">
-        <v>4875759.175891789</v>
+        <v>5.875</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3039,6 +3109,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3060,7 +3131,7 @@
         <v>732854.6831</v>
       </c>
       <c r="G68" t="n">
-        <v>5608613.858991789</v>
+        <v>5.899</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3078,6 +3149,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3099,7 +3171,7 @@
         <v>499398.0428</v>
       </c>
       <c r="G69" t="n">
-        <v>5109215.816191789</v>
+        <v>5.924</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3117,6 +3189,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3138,7 +3211,7 @@
         <v>786982.6353</v>
       </c>
       <c r="G70" t="n">
-        <v>5896198.451491789</v>
+        <v>5.9465</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3156,6 +3229,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3177,7 +3251,7 @@
         <v>2133880.7905</v>
       </c>
       <c r="G71" t="n">
-        <v>8030079.241991789</v>
+        <v>5.972</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3195,6 +3269,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,7 +3291,7 @@
         <v>1726322.4406</v>
       </c>
       <c r="G72" t="n">
-        <v>6303756.801391789</v>
+        <v>6.001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3232,6 +3307,9 @@
         </is>
       </c>
       <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3253,7 +3331,7 @@
         <v>1730252.3939</v>
       </c>
       <c r="G73" t="n">
-        <v>4573504.407491788</v>
+        <v>6.0235</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3267,6 +3345,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3288,13 +3367,13 @@
         <v>706136.395704375</v>
       </c>
       <c r="G74" t="n">
-        <v>5279640.803196163</v>
+        <v>6.047500000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3302,6 +3381,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3323,13 +3403,13 @@
         <v>1006474.0673</v>
       </c>
       <c r="G75" t="n">
-        <v>6286114.870496163</v>
+        <v>6.076500000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3337,6 +3417,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3358,13 +3439,13 @@
         <v>163522.5876</v>
       </c>
       <c r="G76" t="n">
-        <v>6122592.282896163</v>
+        <v>6.104000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3372,6 +3453,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3393,7 +3475,7 @@
         <v>334280.9217</v>
       </c>
       <c r="G77" t="n">
-        <v>5788311.361196163</v>
+        <v>6.125000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3407,6 +3489,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3428,7 +3511,7 @@
         <v>381968.7182</v>
       </c>
       <c r="G78" t="n">
-        <v>6170280.079396163</v>
+        <v>6.145</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3442,6 +3525,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3463,13 +3547,13 @@
         <v>836093.606</v>
       </c>
       <c r="G79" t="n">
-        <v>5334186.473396163</v>
+        <v>6.166</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3477,6 +3561,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3498,13 +3583,13 @@
         <v>49199.0589</v>
       </c>
       <c r="G80" t="n">
-        <v>5284987.414496164</v>
+        <v>6.186500000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3512,6 +3597,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3533,13 +3619,13 @@
         <v>71172.6642</v>
       </c>
       <c r="G81" t="n">
-        <v>5213814.750296164</v>
+        <v>6.200500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3547,6 +3633,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3568,7 +3655,7 @@
         <v>445552.778</v>
       </c>
       <c r="G82" t="n">
-        <v>4768261.972296164</v>
+        <v>6.212000000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3582,6 +3669,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3603,13 +3691,13 @@
         <v>762268.3545</v>
       </c>
       <c r="G83" t="n">
-        <v>5530530.326796165</v>
+        <v>6.221500000000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3617,6 +3705,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3638,13 +3727,13 @@
         <v>407913.9766</v>
       </c>
       <c r="G84" t="n">
-        <v>5122616.350196165</v>
+        <v>6.222000000000003</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3652,6 +3741,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3673,13 +3763,13 @@
         <v>88935.5986</v>
       </c>
       <c r="G85" t="n">
-        <v>5211551.948796165</v>
+        <v>6.216000000000003</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3687,6 +3777,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3708,13 +3799,13 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>5211531.948796165</v>
+        <v>6.220000000000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3722,6 +3813,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3743,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>5211521.948796165</v>
+        <v>6.203000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3757,6 +3849,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3778,13 +3871,13 @@
         <v>21742.5273</v>
       </c>
       <c r="G88" t="n">
-        <v>5233264.476096165</v>
+        <v>6.196000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3792,6 +3885,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3813,13 +3907,13 @@
         <v>24340.2343</v>
       </c>
       <c r="G89" t="n">
-        <v>5233264.476096165</v>
+        <v>6.187500000000003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3827,6 +3921,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3848,13 +3943,13 @@
         <v>10075.1308</v>
       </c>
       <c r="G90" t="n">
-        <v>5223189.345296165</v>
+        <v>6.181500000000003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3862,6 +3957,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3883,13 +3979,13 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>5223199.345296165</v>
+        <v>6.170500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3897,6 +3993,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3918,13 +4015,13 @@
         <v>30851.461</v>
       </c>
       <c r="G92" t="n">
-        <v>5192347.884296165</v>
+        <v>6.148000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3932,6 +4029,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3953,13 +4051,13 @@
         <v>7171.8839</v>
       </c>
       <c r="G93" t="n">
-        <v>5192347.884296165</v>
+        <v>6.134500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3967,6 +4065,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,7 +4087,7 @@
         <v>251028.2672</v>
       </c>
       <c r="G94" t="n">
-        <v>4941319.617096165</v>
+        <v>6.121500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4002,6 +4101,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4023,7 +4123,7 @@
         <v>3344.481</v>
       </c>
       <c r="G95" t="n">
-        <v>4944664.098096165</v>
+        <v>6.105500000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4037,6 +4137,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4058,7 +4159,7 @@
         <v>105107.3226</v>
       </c>
       <c r="G96" t="n">
-        <v>4839556.775496165</v>
+        <v>6.083000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4072,6 +4173,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4093,7 +4195,7 @@
         <v>64315.5391</v>
       </c>
       <c r="G97" t="n">
-        <v>4775241.236396166</v>
+        <v>6.058500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -4113,6 +4215,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4134,7 +4237,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>4775251.236396166</v>
+        <v>6.041000000000002</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -4154,6 +4257,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4175,7 +4279,7 @@
         <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>4775271.236396166</v>
+        <v>6.028000000000001</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4195,6 +4299,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,7 +4321,7 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>4775261.236396166</v>
+        <v>6.012000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4236,6 +4341,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4257,7 +4363,7 @@
         <v>5000</v>
       </c>
       <c r="G101" t="n">
-        <v>4770261.236396166</v>
+        <v>5.998500000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4275,6 +4381,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4296,7 +4403,7 @@
         <v>77734.0336</v>
       </c>
       <c r="G102" t="n">
-        <v>4847995.269996165</v>
+        <v>5.990500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4314,6 +4421,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4335,13 +4443,13 @@
         <v>5042.3785</v>
       </c>
       <c r="G103" t="n">
-        <v>4847995.269996165</v>
+        <v>5.9815</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4353,6 +4461,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4374,13 +4483,13 @@
         <v>69256.83719999999</v>
       </c>
       <c r="G104" t="n">
-        <v>4778738.432796165</v>
+        <v>5.976000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>5.97</v>
@@ -4394,6 +4503,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4415,13 +4525,13 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>4778748.432796165</v>
+        <v>5.971500000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4433,6 +4543,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4454,13 +4565,13 @@
         <v>253906.8739</v>
       </c>
       <c r="G106" t="n">
-        <v>4524841.558896165</v>
+        <v>5.955</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4472,6 +4583,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4493,7 +4605,7 @@
         <v>255462.144</v>
       </c>
       <c r="G107" t="n">
-        <v>4269379.414896165</v>
+        <v>5.944500000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4511,6 +4623,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4532,7 +4645,7 @@
         <v>37181.2037</v>
       </c>
       <c r="G108" t="n">
-        <v>4306560.618596165</v>
+        <v>5.9305</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4550,6 +4663,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4571,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>4306570.618596165</v>
+        <v>5.919</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4589,6 +4703,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4610,7 +4725,7 @@
         <v>64690.2684</v>
       </c>
       <c r="G110" t="n">
-        <v>4371260.886996166</v>
+        <v>5.907500000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4628,6 +4743,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4649,7 +4765,7 @@
         <v>120952.8497</v>
       </c>
       <c r="G111" t="n">
-        <v>4492213.736696166</v>
+        <v>5.896500000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4667,6 +4783,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4688,7 +4805,7 @@
         <v>1732.0404</v>
       </c>
       <c r="G112" t="n">
-        <v>4493945.777096166</v>
+        <v>5.893000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4706,6 +4823,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4727,23 +4845,24 @@
         <v>4141.7081</v>
       </c>
       <c r="G113" t="n">
-        <v>4489804.068996166</v>
+        <v>5.887500000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1.143362831858407</v>
       </c>
     </row>
     <row r="114">
@@ -4766,24 +4885,21 @@
         <v>191038.0744</v>
       </c>
       <c r="G114" t="n">
-        <v>4298765.994596166</v>
+        <v>5.878500000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4805,24 +4921,21 @@
         <v>18643.691270307</v>
       </c>
       <c r="G115" t="n">
-        <v>4317409.685866472</v>
+        <v>5.868</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4844,24 +4957,21 @@
         <v>438.1601</v>
       </c>
       <c r="G116" t="n">
-        <v>4317409.685866472</v>
+        <v>5.867000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="C2" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="D2" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="E2" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="F2" t="n">
-        <v>88869.3121</v>
+        <v>232</v>
       </c>
       <c r="G2" t="n">
-        <v>5.716000000000001</v>
+        <v>507572.2894225081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,38 +474,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="C3" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="D3" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="E3" t="n">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="F3" t="n">
-        <v>74551</v>
+        <v>188</v>
       </c>
       <c r="G3" t="n">
-        <v>5.705000000000001</v>
+        <v>507572.2894225081</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,38 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.65</v>
+        <v>5.82</v>
       </c>
       <c r="C4" t="n">
-        <v>5.65</v>
+        <v>5.82</v>
       </c>
       <c r="D4" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="E4" t="n">
-        <v>5.65</v>
+        <v>5.82</v>
       </c>
       <c r="F4" t="n">
-        <v>73625.53</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>5.695000000000002</v>
+        <v>507572.2894225081</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.72</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.65</v>
+        <v>5.81</v>
       </c>
       <c r="C5" t="n">
-        <v>5.65</v>
+        <v>5.75</v>
       </c>
       <c r="D5" t="n">
-        <v>5.65</v>
+        <v>5.81</v>
       </c>
       <c r="E5" t="n">
-        <v>5.65</v>
+        <v>5.75</v>
       </c>
       <c r="F5" t="n">
-        <v>981.87</v>
+        <v>111111</v>
       </c>
       <c r="G5" t="n">
-        <v>5.688500000000002</v>
+        <v>396461.2894225081</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="C6" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="D6" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="E6" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="F6" t="n">
-        <v>7703.9638</v>
+        <v>101</v>
       </c>
       <c r="G6" t="n">
-        <v>5.683000000000002</v>
+        <v>396562.2894225081</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.65</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="C7" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="D7" t="n">
-        <v>5.72</v>
+        <v>5.81</v>
       </c>
       <c r="E7" t="n">
-        <v>5.72</v>
+        <v>5.8</v>
       </c>
       <c r="F7" t="n">
-        <v>13037.4719</v>
+        <v>41785</v>
       </c>
       <c r="G7" t="n">
-        <v>5.684000000000002</v>
+        <v>354777.2894225081</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.72</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="C8" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="D8" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="E8" t="n">
-        <v>5.72</v>
+        <v>5.82</v>
       </c>
       <c r="F8" t="n">
-        <v>121178.6691</v>
+        <v>11010</v>
       </c>
       <c r="G8" t="n">
-        <v>5.685500000000002</v>
+        <v>365787.2894225081</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -709,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -724,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="C9" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="D9" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="E9" t="n">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="F9" t="n">
-        <v>48403.0538</v>
+        <v>9082.8379</v>
       </c>
       <c r="G9" t="n">
-        <v>5.683000000000002</v>
+        <v>374870.1273225081</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -749,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -764,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="C10" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="D10" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="E10" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="F10" t="n">
-        <v>9360.7796</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>5.683000000000002</v>
+        <v>374870.1273225081</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -789,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -804,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="C11" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="D11" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="E11" t="n">
-        <v>5.67</v>
+        <v>5.89</v>
       </c>
       <c r="F11" t="n">
-        <v>82713.7901</v>
+        <v>144</v>
       </c>
       <c r="G11" t="n">
-        <v>5.681000000000003</v>
+        <v>374870.1273225081</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -829,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -844,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="C12" t="n">
-        <v>5.7</v>
+        <v>5.79</v>
       </c>
       <c r="D12" t="n">
-        <v>5.7</v>
+        <v>5.89</v>
       </c>
       <c r="E12" t="n">
-        <v>5.68</v>
+        <v>5.79</v>
       </c>
       <c r="F12" t="n">
-        <v>15402.4935</v>
+        <v>101408.7176</v>
       </c>
       <c r="G12" t="n">
-        <v>5.678000000000003</v>
+        <v>273461.409722508</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -869,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -884,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.7</v>
+        <v>5.85</v>
       </c>
       <c r="C13" t="n">
-        <v>5.7</v>
+        <v>5.85</v>
       </c>
       <c r="D13" t="n">
-        <v>5.7</v>
+        <v>5.85</v>
       </c>
       <c r="E13" t="n">
-        <v>5.7</v>
+        <v>5.85</v>
       </c>
       <c r="F13" t="n">
-        <v>36421.4685</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>5.674000000000002</v>
+        <v>273472.409722508</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -909,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -924,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.72</v>
+        <v>5.78</v>
       </c>
       <c r="C14" t="n">
-        <v>5.72</v>
+        <v>5.83</v>
       </c>
       <c r="D14" t="n">
-        <v>5.72</v>
+        <v>5.83</v>
       </c>
       <c r="E14" t="n">
-        <v>5.72</v>
+        <v>5.76</v>
       </c>
       <c r="F14" t="n">
-        <v>7809.1147</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>5.676500000000003</v>
+        <v>273441.409722508</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -949,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -964,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.76</v>
+        <v>5.83</v>
       </c>
       <c r="C15" t="n">
-        <v>5.7</v>
+        <v>5.83</v>
       </c>
       <c r="D15" t="n">
-        <v>5.78</v>
+        <v>5.83</v>
       </c>
       <c r="E15" t="n">
-        <v>5.7</v>
+        <v>5.83</v>
       </c>
       <c r="F15" t="n">
-        <v>365398.9648</v>
+        <v>212.5214</v>
       </c>
       <c r="G15" t="n">
-        <v>5.681000000000003</v>
+        <v>273441.409722508</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -989,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1007,19 +945,19 @@
         <v>5.7</v>
       </c>
       <c r="C16" t="n">
-        <v>5.71</v>
+        <v>5.66</v>
       </c>
       <c r="D16" t="n">
-        <v>5.71</v>
+        <v>5.7</v>
       </c>
       <c r="E16" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
       <c r="F16" t="n">
-        <v>41502.8767</v>
+        <v>400000</v>
       </c>
       <c r="G16" t="n">
-        <v>5.683000000000002</v>
+        <v>-126558.590277492</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1029,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1044,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.77</v>
+        <v>5.69</v>
       </c>
       <c r="C17" t="n">
-        <v>5.78</v>
+        <v>5.68</v>
       </c>
       <c r="D17" t="n">
-        <v>5.78</v>
+        <v>5.69</v>
       </c>
       <c r="E17" t="n">
-        <v>5.77</v>
+        <v>5.68</v>
       </c>
       <c r="F17" t="n">
-        <v>346394.1321</v>
+        <v>203402.916</v>
       </c>
       <c r="G17" t="n">
-        <v>5.688500000000003</v>
+        <v>76844.32572250805</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1069,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1084,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="C18" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="D18" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="E18" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="F18" t="n">
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>5.697000000000003</v>
+        <v>76854.32572250805</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1109,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1124,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="C19" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="D19" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="E19" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="F19" t="n">
-        <v>17132.1418</v>
+        <v>139501.0614</v>
       </c>
       <c r="G19" t="n">
-        <v>5.703500000000003</v>
+        <v>-62646.73567749196</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1149,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1164,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="C20" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="D20" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="E20" t="n">
-        <v>5.82</v>
+        <v>5.71</v>
       </c>
       <c r="F20" t="n">
-        <v>1794.1468</v>
+        <v>74858.80526666599</v>
       </c>
       <c r="G20" t="n">
-        <v>5.712500000000002</v>
+        <v>12212.06958917403</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1189,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1204,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.83</v>
+        <v>5.74</v>
       </c>
       <c r="C21" t="n">
-        <v>5.83</v>
+        <v>5.66</v>
       </c>
       <c r="D21" t="n">
-        <v>5.83</v>
+        <v>5.74</v>
       </c>
       <c r="E21" t="n">
-        <v>5.83</v>
+        <v>5.66</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>336102.5853</v>
       </c>
       <c r="G21" t="n">
-        <v>5.722000000000002</v>
+        <v>-323890.5157108259</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1229,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1244,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.86</v>
+        <v>5.78</v>
       </c>
       <c r="C22" t="n">
-        <v>5.86</v>
+        <v>5.78</v>
       </c>
       <c r="D22" t="n">
-        <v>5.86</v>
+        <v>5.78</v>
       </c>
       <c r="E22" t="n">
-        <v>5.86</v>
+        <v>5.78</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>3224.9048</v>
       </c>
       <c r="G22" t="n">
-        <v>5.731500000000002</v>
+        <v>-320665.6109108259</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1269,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1284,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="C23" t="n">
-        <v>5.87</v>
+        <v>5.66</v>
       </c>
       <c r="D23" t="n">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="E23" t="n">
-        <v>5.87</v>
+        <v>5.66</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>59999.625</v>
       </c>
       <c r="G23" t="n">
-        <v>5.741500000000002</v>
+        <v>-380665.2359108259</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1309,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.85</v>
+        <v>5.67</v>
       </c>
       <c r="C24" t="n">
-        <v>5.85</v>
+        <v>5.66</v>
       </c>
       <c r="D24" t="n">
-        <v>5.85</v>
+        <v>5.67</v>
       </c>
       <c r="E24" t="n">
-        <v>5.85</v>
+        <v>5.66</v>
       </c>
       <c r="F24" t="n">
-        <v>15878.2905</v>
+        <v>500000</v>
       </c>
       <c r="G24" t="n">
-        <v>5.751500000000002</v>
+        <v>-380665.2359108259</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1349,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1364,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="C25" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
       <c r="D25" t="n">
-        <v>5.72</v>
+        <v>5.66</v>
       </c>
       <c r="E25" t="n">
-        <v>5.7</v>
+        <v>5.66</v>
       </c>
       <c r="F25" t="n">
-        <v>184756.1597</v>
+        <v>124984.0025</v>
       </c>
       <c r="G25" t="n">
-        <v>5.755000000000001</v>
+        <v>-380665.2359108259</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1389,11 +1291,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1404,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.77</v>
+        <v>5.66</v>
       </c>
       <c r="C26" t="n">
-        <v>5.77</v>
+        <v>5.66</v>
       </c>
       <c r="D26" t="n">
-        <v>5.77</v>
+        <v>5.66</v>
       </c>
       <c r="E26" t="n">
-        <v>5.77</v>
+        <v>5.66</v>
       </c>
       <c r="F26" t="n">
-        <v>5181.3471</v>
+        <v>73085.85679999999</v>
       </c>
       <c r="G26" t="n">
-        <v>5.757500000000001</v>
+        <v>-380665.2359108259</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1429,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1444,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="C27" t="n">
-        <v>5.7</v>
+        <v>5.61</v>
       </c>
       <c r="D27" t="n">
-        <v>5.71</v>
+        <v>5.65</v>
       </c>
       <c r="E27" t="n">
-        <v>5.7</v>
+        <v>5.61</v>
       </c>
       <c r="F27" t="n">
-        <v>253515.5355</v>
+        <v>881316.4983</v>
       </c>
       <c r="G27" t="n">
-        <v>5.757000000000001</v>
+        <v>-1261981.734210826</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1469,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1484,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="C28" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="D28" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="E28" t="n">
-        <v>5.67</v>
+        <v>5.69</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>5679.307</v>
       </c>
       <c r="G28" t="n">
-        <v>5.754500000000001</v>
+        <v>-1256302.427210826</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1509,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1524,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="C29" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="D29" t="n">
-        <v>5.67</v>
+        <v>5.64</v>
       </c>
       <c r="E29" t="n">
-        <v>5.66</v>
+        <v>5.61</v>
       </c>
       <c r="F29" t="n">
-        <v>139181.6428</v>
+        <v>450000</v>
       </c>
       <c r="G29" t="n">
-        <v>5.754</v>
+        <v>-1706302.427210826</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1549,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1564,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="C30" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="D30" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="E30" t="n">
-        <v>5.71</v>
+        <v>5.64</v>
       </c>
       <c r="F30" t="n">
-        <v>16980.5604</v>
+        <v>74858.8052</v>
       </c>
       <c r="G30" t="n">
-        <v>5.756</v>
+        <v>-1631443.622010826</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1589,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1616,10 +1494,10 @@
         <v>5.67</v>
       </c>
       <c r="F31" t="n">
-        <v>2139.2226</v>
+        <v>88869.3121</v>
       </c>
       <c r="G31" t="n">
-        <v>5.756</v>
+        <v>-1542574.309910826</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1629,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1644,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.71</v>
+        <v>5.67</v>
       </c>
       <c r="C32" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="D32" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="E32" t="n">
-        <v>5.71</v>
+        <v>5.67</v>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>74551</v>
       </c>
       <c r="G32" t="n">
-        <v>5.7575</v>
+        <v>-1468023.309910826</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1673,7 +1547,7 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1686,22 +1560,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="C33" t="n">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="D33" t="n">
-        <v>5.74</v>
+        <v>5.72</v>
       </c>
       <c r="E33" t="n">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="F33" t="n">
-        <v>7312.717770034</v>
+        <v>73625.53</v>
       </c>
       <c r="G33" t="n">
-        <v>5.7595</v>
+        <v>-1541648.839910826</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1710,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
@@ -1728,22 +1602,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="C34" t="n">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="D34" t="n">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="E34" t="n">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="F34" t="n">
-        <v>200</v>
+        <v>981.87</v>
       </c>
       <c r="G34" t="n">
-        <v>5.761</v>
+        <v>-1541648.839910826</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1752,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.74</v>
+        <v>5.65</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
@@ -1770,30 +1644,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="C35" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="D35" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="E35" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="F35" t="n">
-        <v>187652.1482</v>
+        <v>7703.9638</v>
       </c>
       <c r="G35" t="n">
-        <v>5.757</v>
+        <v>-1533944.876110826</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
@@ -1810,30 +1686,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="C36" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="D36" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="E36" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="F36" t="n">
-        <v>65.7338</v>
+        <v>13037.4719</v>
       </c>
       <c r="G36" t="n">
-        <v>5.757499999999999</v>
+        <v>-1533944.876110826</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1850,30 +1728,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="C37" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="D37" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="E37" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="F37" t="n">
-        <v>424</v>
+        <v>121178.6691</v>
       </c>
       <c r="G37" t="n">
-        <v>5.7525</v>
+        <v>-1533944.876110826</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -1890,22 +1770,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="C38" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="D38" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="E38" t="n">
-        <v>5.67</v>
+        <v>5.68</v>
       </c>
       <c r="F38" t="n">
-        <v>2361</v>
+        <v>48403.0538</v>
       </c>
       <c r="G38" t="n">
-        <v>5.745</v>
+        <v>-1582347.929910826</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1942,10 +1822,10 @@
         <v>5.67</v>
       </c>
       <c r="F39" t="n">
-        <v>1104</v>
+        <v>9360.7796</v>
       </c>
       <c r="G39" t="n">
-        <v>5.7375</v>
+        <v>-1591708.709510826</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1970,7 +1850,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="C40" t="n">
         <v>5.68</v>
@@ -1979,23 +1859,21 @@
         <v>5.68</v>
       </c>
       <c r="E40" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="F40" t="n">
-        <v>69</v>
+        <v>82713.7901</v>
       </c>
       <c r="G40" t="n">
-        <v>5.730500000000001</v>
+        <v>-1508994.919410826</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -2015,29 +1893,27 @@
         <v>5.68</v>
       </c>
       <c r="C41" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="D41" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="E41" t="n">
         <v>5.68</v>
       </c>
       <c r="F41" t="n">
-        <v>1035</v>
+        <v>15402.4935</v>
       </c>
       <c r="G41" t="n">
-        <v>5.723000000000001</v>
+        <v>-1493592.425910826</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
@@ -2054,22 +1930,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="C42" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="D42" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="E42" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="F42" t="n">
-        <v>61264.3946</v>
+        <v>36421.4685</v>
       </c>
       <c r="G42" t="n">
-        <v>5.714</v>
+        <v>-1493592.425910826</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2078,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
@@ -2096,22 +1972,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="C43" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="D43" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="E43" t="n">
-        <v>5.71</v>
+        <v>5.72</v>
       </c>
       <c r="F43" t="n">
-        <v>14292.166</v>
+        <v>7809.1147</v>
       </c>
       <c r="G43" t="n">
-        <v>5.706</v>
+        <v>-1485783.311210826</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -2120,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.68</v>
+        <v>5.7</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -2138,31 +2014,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="C44" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>365398.9648</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1851182.276010826</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>5.72</v>
-      </c>
-      <c r="C44" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="D44" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="F44" t="n">
-        <v>48396.5057</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5.6995</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.71</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
@@ -2180,22 +2056,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="C45" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="D45" t="n">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="E45" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F45" t="n">
-        <v>286</v>
+        <v>41502.8767</v>
       </c>
       <c r="G45" t="n">
-        <v>5.7005</v>
+        <v>-1809679.399310826</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -2204,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.73</v>
+        <v>5.7</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
@@ -2222,32 +2098,30 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="C46" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="D46" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="E46" t="n">
-        <v>5.74</v>
+        <v>5.77</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>346394.1321</v>
       </c>
       <c r="G46" t="n">
-        <v>5.699</v>
+        <v>-1463285.267210826</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -2264,32 +2138,30 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="C47" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="D47" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="E47" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="F47" t="n">
-        <v>138374.1946</v>
+        <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>5.7005</v>
+        <v>-1463275.267210826</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
@@ -2306,22 +2178,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="C48" t="n">
-        <v>5.7</v>
+        <v>5.82</v>
       </c>
       <c r="D48" t="n">
-        <v>5.74</v>
+        <v>5.82</v>
       </c>
       <c r="E48" t="n">
-        <v>5.7</v>
+        <v>5.82</v>
       </c>
       <c r="F48" t="n">
-        <v>50577.9842</v>
+        <v>17132.1418</v>
       </c>
       <c r="G48" t="n">
-        <v>5.704</v>
+        <v>-1463275.267210826</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2346,22 +2218,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="C49" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="D49" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="E49" t="n">
-        <v>5.75</v>
+        <v>5.82</v>
       </c>
       <c r="F49" t="n">
-        <v>8695.652173913</v>
+        <v>1794.1468</v>
       </c>
       <c r="G49" t="n">
-        <v>5.708</v>
+        <v>-1463275.267210826</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2386,22 +2258,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.75</v>
+        <v>5.83</v>
       </c>
       <c r="C50" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="D50" t="n">
-        <v>5.77</v>
+        <v>5.83</v>
       </c>
       <c r="E50" t="n">
-        <v>5.75</v>
+        <v>5.83</v>
       </c>
       <c r="F50" t="n">
-        <v>122650.953226087</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>5.71</v>
+        <v>-1463265.267210826</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2426,22 +2298,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="C51" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="D51" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="E51" t="n">
-        <v>5.8</v>
+        <v>5.86</v>
       </c>
       <c r="F51" t="n">
-        <v>289030.4553</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>5.7165</v>
+        <v>-1463255.267210826</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2481,17 +2353,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>5.724500000000001</v>
+        <v>-1463245.267210826</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2508,32 +2378,30 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="C53" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="D53" t="n">
-        <v>5.81</v>
+        <v>5.85</v>
       </c>
       <c r="E53" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="F53" t="n">
-        <v>324507.2212</v>
+        <v>15878.2905</v>
       </c>
       <c r="G53" t="n">
-        <v>5.728000000000001</v>
+        <v>-1479123.557710826</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.87</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2550,32 +2418,30 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="C54" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="D54" t="n">
-        <v>5.77</v>
+        <v>5.72</v>
       </c>
       <c r="E54" t="n">
-        <v>5.74</v>
+        <v>5.7</v>
       </c>
       <c r="F54" t="n">
-        <v>184460.5717</v>
+        <v>184756.1597</v>
       </c>
       <c r="G54" t="n">
-        <v>5.729000000000001</v>
+        <v>-1663879.717410826</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2592,22 +2458,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="C55" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="D55" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="E55" t="n">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="F55" t="n">
-        <v>5206.0901</v>
+        <v>5181.3471</v>
       </c>
       <c r="G55" t="n">
-        <v>5.731</v>
+        <v>-1658698.370310826</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2632,32 +2498,30 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.78</v>
+        <v>5.71</v>
       </c>
       <c r="C56" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="D56" t="n">
-        <v>5.78</v>
+        <v>5.71</v>
       </c>
       <c r="E56" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="F56" t="n">
-        <v>54032.139</v>
+        <v>253515.5355</v>
       </c>
       <c r="G56" t="n">
-        <v>5.734500000000001</v>
+        <v>-1912213.905810826</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.72</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
@@ -2674,22 +2538,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.79</v>
+        <v>5.67</v>
       </c>
       <c r="C57" t="n">
-        <v>5.8</v>
+        <v>5.67</v>
       </c>
       <c r="D57" t="n">
-        <v>5.8</v>
+        <v>5.67</v>
       </c>
       <c r="E57" t="n">
-        <v>5.79</v>
+        <v>5.67</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>5.740500000000001</v>
+        <v>-1912223.905810826</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2714,22 +2578,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.81</v>
+        <v>5.67</v>
       </c>
       <c r="C58" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="D58" t="n">
-        <v>5.81</v>
+        <v>5.67</v>
       </c>
       <c r="E58" t="n">
-        <v>5.81</v>
+        <v>5.66</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>139181.6428</v>
       </c>
       <c r="G58" t="n">
-        <v>5.7475</v>
+        <v>-2051405.548610826</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2754,22 +2618,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.8</v>
+        <v>5.71</v>
       </c>
       <c r="C59" t="n">
-        <v>5.8</v>
+        <v>5.71</v>
       </c>
       <c r="D59" t="n">
-        <v>5.8</v>
+        <v>5.71</v>
       </c>
       <c r="E59" t="n">
-        <v>5.8</v>
+        <v>5.71</v>
       </c>
       <c r="F59" t="n">
-        <v>10704.0804</v>
+        <v>16980.5604</v>
       </c>
       <c r="G59" t="n">
-        <v>5.754</v>
+        <v>-2034424.988210826</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2794,22 +2658,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="C60" t="n">
-        <v>5.88</v>
+        <v>5.67</v>
       </c>
       <c r="D60" t="n">
-        <v>5.88</v>
+        <v>5.67</v>
       </c>
       <c r="E60" t="n">
-        <v>5.82</v>
+        <v>5.67</v>
       </c>
       <c r="F60" t="n">
-        <v>309586.6245</v>
+        <v>2139.2226</v>
       </c>
       <c r="G60" t="n">
-        <v>5.761</v>
+        <v>-2036564.210810826</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2834,32 +2698,30 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.87</v>
+        <v>5.71</v>
       </c>
       <c r="C61" t="n">
-        <v>5.87</v>
+        <v>5.71</v>
       </c>
       <c r="D61" t="n">
-        <v>5.87</v>
+        <v>5.71</v>
       </c>
       <c r="E61" t="n">
-        <v>5.87</v>
+        <v>5.71</v>
       </c>
       <c r="F61" t="n">
-        <v>52500</v>
+        <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>5.7705</v>
+        <v>-2026564.210810826</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5.88</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2876,22 +2738,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="C62" t="n">
-        <v>5.96</v>
+        <v>5.74</v>
       </c>
       <c r="D62" t="n">
-        <v>5.96</v>
+        <v>5.74</v>
       </c>
       <c r="E62" t="n">
-        <v>5.88</v>
+        <v>5.74</v>
       </c>
       <c r="F62" t="n">
-        <v>3883398.8008</v>
+        <v>7312.717770034</v>
       </c>
       <c r="G62" t="n">
-        <v>5.780499999999999</v>
+        <v>-2019251.493040792</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2916,22 +2778,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.96</v>
+        <v>5.75</v>
       </c>
       <c r="C63" t="n">
-        <v>5.99</v>
+        <v>5.75</v>
       </c>
       <c r="D63" t="n">
-        <v>5.99</v>
+        <v>5.75</v>
       </c>
       <c r="E63" t="n">
-        <v>5.96</v>
+        <v>5.75</v>
       </c>
       <c r="F63" t="n">
-        <v>1269977.782</v>
+        <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>5.792999999999999</v>
+        <v>-2019051.493040792</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2956,22 +2818,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>5.68</v>
       </c>
       <c r="C64" t="n">
-        <v>6.2</v>
+        <v>5.68</v>
       </c>
       <c r="D64" t="n">
-        <v>6.2</v>
+        <v>5.68</v>
       </c>
       <c r="E64" t="n">
-        <v>6</v>
+        <v>5.68</v>
       </c>
       <c r="F64" t="n">
-        <v>1446885.51833258</v>
+        <v>187652.1482</v>
       </c>
       <c r="G64" t="n">
-        <v>5.806999999999999</v>
+        <v>-2206703.641240792</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2996,22 +2858,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.13</v>
+        <v>5.71</v>
       </c>
       <c r="C65" t="n">
-        <v>6.11</v>
+        <v>5.71</v>
       </c>
       <c r="D65" t="n">
-        <v>6.13</v>
+        <v>5.71</v>
       </c>
       <c r="E65" t="n">
-        <v>6.11</v>
+        <v>5.71</v>
       </c>
       <c r="F65" t="n">
-        <v>204582.2699</v>
+        <v>65.7338</v>
       </c>
       <c r="G65" t="n">
-        <v>5.826499999999999</v>
+        <v>-2206637.907440792</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3036,22 +2898,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.11</v>
+        <v>5.67</v>
       </c>
       <c r="C66" t="n">
-        <v>6.34</v>
+        <v>5.67</v>
       </c>
       <c r="D66" t="n">
-        <v>6.35</v>
+        <v>5.67</v>
       </c>
       <c r="E66" t="n">
-        <v>6.11</v>
+        <v>5.67</v>
       </c>
       <c r="F66" t="n">
-        <v>1967838.5083</v>
+        <v>424</v>
       </c>
       <c r="G66" t="n">
-        <v>5.845</v>
+        <v>-2207061.907440792</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3076,22 +2938,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.34</v>
+        <v>5.67</v>
       </c>
       <c r="C67" t="n">
-        <v>6.25</v>
+        <v>5.67</v>
       </c>
       <c r="D67" t="n">
-        <v>6.34</v>
+        <v>5.67</v>
       </c>
       <c r="E67" t="n">
-        <v>6.2</v>
+        <v>5.67</v>
       </c>
       <c r="F67" t="n">
-        <v>1499820.8045</v>
+        <v>2361</v>
       </c>
       <c r="G67" t="n">
-        <v>5.875</v>
+        <v>-2207061.907440792</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3116,30 +2978,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.22</v>
+        <v>5.67</v>
       </c>
       <c r="C68" t="n">
-        <v>6.32</v>
+        <v>5.67</v>
       </c>
       <c r="D68" t="n">
-        <v>6.32</v>
+        <v>5.67</v>
       </c>
       <c r="E68" t="n">
-        <v>6.22</v>
+        <v>5.67</v>
       </c>
       <c r="F68" t="n">
-        <v>732854.6831</v>
+        <v>1104</v>
       </c>
       <c r="G68" t="n">
-        <v>5.899</v>
+        <v>-2207061.907440792</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -3156,30 +3020,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.25</v>
+        <v>5.68</v>
       </c>
       <c r="C69" t="n">
-        <v>6.21</v>
+        <v>5.68</v>
       </c>
       <c r="D69" t="n">
-        <v>6.29</v>
+        <v>5.68</v>
       </c>
       <c r="E69" t="n">
-        <v>6.21</v>
+        <v>5.68</v>
       </c>
       <c r="F69" t="n">
-        <v>499398.0428</v>
+        <v>69</v>
       </c>
       <c r="G69" t="n">
-        <v>5.924</v>
+        <v>-2206992.907440792</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.67</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3196,30 +3062,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.2</v>
+        <v>5.68</v>
       </c>
       <c r="C70" t="n">
-        <v>6.33</v>
+        <v>5.68</v>
       </c>
       <c r="D70" t="n">
-        <v>6.33</v>
+        <v>5.68</v>
       </c>
       <c r="E70" t="n">
-        <v>6.2</v>
+        <v>5.68</v>
       </c>
       <c r="F70" t="n">
-        <v>786982.6353</v>
+        <v>1035</v>
       </c>
       <c r="G70" t="n">
-        <v>5.9465</v>
+        <v>-2206992.907440792</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -3236,30 +3104,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.31</v>
+        <v>5.68</v>
       </c>
       <c r="C71" t="n">
-        <v>6.46</v>
+        <v>5.68</v>
       </c>
       <c r="D71" t="n">
-        <v>6.46</v>
+        <v>5.68</v>
       </c>
       <c r="E71" t="n">
-        <v>6.31</v>
+        <v>5.68</v>
       </c>
       <c r="F71" t="n">
-        <v>2133880.7905</v>
+        <v>61264.3946</v>
       </c>
       <c r="G71" t="n">
-        <v>5.972</v>
+        <v>-2206992.907440792</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3276,72 +3146,80 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.45</v>
+        <v>5.71</v>
       </c>
       <c r="C72" t="n">
-        <v>6.33</v>
+        <v>5.71</v>
       </c>
       <c r="D72" t="n">
-        <v>6.45</v>
+        <v>5.71</v>
       </c>
       <c r="E72" t="n">
-        <v>6.33</v>
+        <v>5.71</v>
       </c>
       <c r="F72" t="n">
-        <v>1726322.4406</v>
+        <v>14292.166</v>
       </c>
       <c r="G72" t="n">
-        <v>6.001</v>
+        <v>-2192700.741440792</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5.68</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.26</v>
+        <v>5.72</v>
       </c>
       <c r="C73" t="n">
-        <v>6.25</v>
+        <v>5.73</v>
       </c>
       <c r="D73" t="n">
-        <v>6.39</v>
+        <v>5.73</v>
       </c>
       <c r="E73" t="n">
-        <v>6.2</v>
+        <v>5.72</v>
       </c>
       <c r="F73" t="n">
-        <v>1730252.3939</v>
+        <v>48396.5057</v>
       </c>
       <c r="G73" t="n">
-        <v>6.0235</v>
+        <v>-2144304.235740792</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>5.71</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3352,32 +3230,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.25</v>
+        <v>5.74</v>
       </c>
       <c r="C74" t="n">
-        <v>6.3</v>
+        <v>5.74</v>
       </c>
       <c r="D74" t="n">
-        <v>6.4</v>
+        <v>5.74</v>
       </c>
       <c r="E74" t="n">
-        <v>6.25</v>
+        <v>5.74</v>
       </c>
       <c r="F74" t="n">
-        <v>706136.395704375</v>
+        <v>286</v>
       </c>
       <c r="G74" t="n">
-        <v>6.047500000000001</v>
+        <v>-2144018.235740792</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.73</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3388,32 +3272,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.3</v>
+        <v>5.74</v>
       </c>
       <c r="C75" t="n">
-        <v>6.33</v>
+        <v>5.74</v>
       </c>
       <c r="D75" t="n">
-        <v>6.33</v>
+        <v>5.74</v>
       </c>
       <c r="E75" t="n">
-        <v>6.2</v>
+        <v>5.74</v>
       </c>
       <c r="F75" t="n">
-        <v>1006474.0673</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>6.076500000000001</v>
+        <v>-2144018.235740792</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3424,32 +3314,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.33</v>
+        <v>5.74</v>
       </c>
       <c r="C76" t="n">
-        <v>6.25</v>
+        <v>5.74</v>
       </c>
       <c r="D76" t="n">
-        <v>6.35</v>
+        <v>5.74</v>
       </c>
       <c r="E76" t="n">
-        <v>6.25</v>
+        <v>5.74</v>
       </c>
       <c r="F76" t="n">
-        <v>163522.5876</v>
+        <v>138374.1946</v>
       </c>
       <c r="G76" t="n">
-        <v>6.104000000000001</v>
+        <v>-2144018.235740792</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3460,32 +3356,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.21</v>
+        <v>5.74</v>
       </c>
       <c r="C77" t="n">
-        <v>6.19</v>
+        <v>5.7</v>
       </c>
       <c r="D77" t="n">
-        <v>6.29</v>
+        <v>5.74</v>
       </c>
       <c r="E77" t="n">
-        <v>6.19</v>
+        <v>5.7</v>
       </c>
       <c r="F77" t="n">
-        <v>334280.9217</v>
+        <v>50577.9842</v>
       </c>
       <c r="G77" t="n">
-        <v>6.125000000000001</v>
+        <v>-2194596.219940791</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.74</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3496,32 +3398,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.21</v>
+        <v>5.75</v>
       </c>
       <c r="C78" t="n">
-        <v>6.24</v>
+        <v>5.75</v>
       </c>
       <c r="D78" t="n">
-        <v>6.26</v>
+        <v>5.75</v>
       </c>
       <c r="E78" t="n">
-        <v>6.11</v>
+        <v>5.75</v>
       </c>
       <c r="F78" t="n">
-        <v>381968.7182</v>
+        <v>8695.652173913</v>
       </c>
       <c r="G78" t="n">
-        <v>6.145</v>
+        <v>-2185900.567766878</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5.7</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3532,32 +3440,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.22</v>
+        <v>5.75</v>
       </c>
       <c r="C79" t="n">
-        <v>6.23</v>
+        <v>5.77</v>
       </c>
       <c r="D79" t="n">
-        <v>6.25</v>
+        <v>5.77</v>
       </c>
       <c r="E79" t="n">
-        <v>6.1</v>
+        <v>5.75</v>
       </c>
       <c r="F79" t="n">
-        <v>836093.606</v>
+        <v>122650.953226087</v>
       </c>
       <c r="G79" t="n">
-        <v>6.166</v>
+        <v>-2063249.614540791</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>5.75</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3568,32 +3482,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.23</v>
+        <v>5.8</v>
       </c>
       <c r="C80" t="n">
-        <v>6.21</v>
+        <v>5.8</v>
       </c>
       <c r="D80" t="n">
-        <v>6.24</v>
+        <v>5.8</v>
       </c>
       <c r="E80" t="n">
-        <v>6.21</v>
+        <v>5.8</v>
       </c>
       <c r="F80" t="n">
-        <v>49199.0589</v>
+        <v>289030.4553</v>
       </c>
       <c r="G80" t="n">
-        <v>6.186500000000001</v>
+        <v>-1774219.159240791</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.77</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3604,32 +3524,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.15</v>
+        <v>5.87</v>
       </c>
       <c r="C81" t="n">
-        <v>6.2</v>
+        <v>5.87</v>
       </c>
       <c r="D81" t="n">
-        <v>6.2</v>
+        <v>5.87</v>
       </c>
       <c r="E81" t="n">
-        <v>6.1</v>
+        <v>5.87</v>
       </c>
       <c r="F81" t="n">
-        <v>71172.6642</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>6.200500000000001</v>
+        <v>-1774209.159240791</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5.8</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3640,32 +3566,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.11</v>
+        <v>5.81</v>
       </c>
       <c r="C82" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="D82" t="n">
-        <v>6.17</v>
+        <v>5.81</v>
       </c>
       <c r="E82" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F82" t="n">
-        <v>445552.778</v>
+        <v>324507.2212</v>
       </c>
       <c r="G82" t="n">
-        <v>6.212000000000002</v>
+        <v>-2098716.380440791</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3676,32 +3606,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.15</v>
+        <v>5.77</v>
       </c>
       <c r="C83" t="n">
-        <v>6.14</v>
+        <v>5.74</v>
       </c>
       <c r="D83" t="n">
-        <v>6.15</v>
+        <v>5.77</v>
       </c>
       <c r="E83" t="n">
-        <v>6.05</v>
+        <v>5.74</v>
       </c>
       <c r="F83" t="n">
-        <v>762268.3545</v>
+        <v>184460.5717</v>
       </c>
       <c r="G83" t="n">
-        <v>6.221500000000002</v>
+        <v>-2283176.952140791</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3712,32 +3646,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.01</v>
+        <v>5.72</v>
       </c>
       <c r="C84" t="n">
-        <v>6.01</v>
+        <v>5.72</v>
       </c>
       <c r="D84" t="n">
-        <v>6.01</v>
+        <v>5.72</v>
       </c>
       <c r="E84" t="n">
-        <v>6.01</v>
+        <v>5.72</v>
       </c>
       <c r="F84" t="n">
-        <v>407913.9766</v>
+        <v>5206.0901</v>
       </c>
       <c r="G84" t="n">
-        <v>6.222000000000003</v>
+        <v>-2288383.042240791</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3748,32 +3686,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.01</v>
+        <v>5.78</v>
       </c>
       <c r="C85" t="n">
-        <v>6.18</v>
+        <v>5.78</v>
       </c>
       <c r="D85" t="n">
-        <v>6.18</v>
+        <v>5.78</v>
       </c>
       <c r="E85" t="n">
-        <v>6.01</v>
+        <v>5.78</v>
       </c>
       <c r="F85" t="n">
-        <v>88935.5986</v>
+        <v>54032.139</v>
       </c>
       <c r="G85" t="n">
-        <v>6.216000000000003</v>
+        <v>-2234350.903240792</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3784,32 +3726,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.19</v>
+        <v>5.79</v>
       </c>
       <c r="C86" t="n">
-        <v>6.17</v>
+        <v>5.8</v>
       </c>
       <c r="D86" t="n">
-        <v>6.19</v>
+        <v>5.8</v>
       </c>
       <c r="E86" t="n">
-        <v>6.17</v>
+        <v>5.79</v>
       </c>
       <c r="F86" t="n">
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>6.220000000000002</v>
+        <v>-2234330.903240792</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3820,32 +3766,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="E87" t="n">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="F87" t="n">
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>6.203000000000001</v>
+        <v>-2234320.903240792</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3856,32 +3806,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.08</v>
+        <v>5.8</v>
       </c>
       <c r="C88" t="n">
-        <v>6.08</v>
+        <v>5.8</v>
       </c>
       <c r="D88" t="n">
-        <v>6.08</v>
+        <v>5.8</v>
       </c>
       <c r="E88" t="n">
-        <v>6.08</v>
+        <v>5.8</v>
       </c>
       <c r="F88" t="n">
-        <v>21742.5273</v>
+        <v>10704.0804</v>
       </c>
       <c r="G88" t="n">
-        <v>6.196000000000002</v>
+        <v>-2245024.983640791</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3892,32 +3846,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.08</v>
+        <v>5.82</v>
       </c>
       <c r="C89" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="D89" t="n">
-        <v>6.08</v>
+        <v>5.88</v>
       </c>
       <c r="E89" t="n">
-        <v>6.08</v>
+        <v>5.82</v>
       </c>
       <c r="F89" t="n">
-        <v>24340.2343</v>
+        <v>309586.6245</v>
       </c>
       <c r="G89" t="n">
-        <v>6.187500000000003</v>
+        <v>-1935438.359140791</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3928,32 +3886,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.08</v>
+        <v>5.87</v>
       </c>
       <c r="C90" t="n">
-        <v>6.01</v>
+        <v>5.87</v>
       </c>
       <c r="D90" t="n">
-        <v>6.08</v>
+        <v>5.87</v>
       </c>
       <c r="E90" t="n">
-        <v>6.01</v>
+        <v>5.87</v>
       </c>
       <c r="F90" t="n">
-        <v>10075.1308</v>
+        <v>52500</v>
       </c>
       <c r="G90" t="n">
-        <v>6.181500000000003</v>
+        <v>-1987938.359140791</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3964,32 +3926,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.09</v>
+        <v>5.88</v>
       </c>
       <c r="C91" t="n">
-        <v>6.09</v>
+        <v>5.96</v>
       </c>
       <c r="D91" t="n">
-        <v>6.09</v>
+        <v>5.96</v>
       </c>
       <c r="E91" t="n">
-        <v>6.09</v>
+        <v>5.88</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>3883398.8008</v>
       </c>
       <c r="G91" t="n">
-        <v>6.170500000000002</v>
+        <v>1895460.441659208</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4000,32 +3966,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="C92" t="n">
         <v>5.99</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>5.99</v>
       </c>
       <c r="E92" t="n">
-        <v>5.99</v>
+        <v>5.96</v>
       </c>
       <c r="F92" t="n">
-        <v>30851.461</v>
+        <v>1269977.782</v>
       </c>
       <c r="G92" t="n">
-        <v>6.148000000000002</v>
+        <v>3165438.223659208</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4036,32 +4006,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
-        <v>5.99</v>
+        <v>6.2</v>
       </c>
       <c r="D93" t="n">
-        <v>5.99</v>
+        <v>6.2</v>
       </c>
       <c r="E93" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>7171.8839</v>
+        <v>1446885.51833258</v>
       </c>
       <c r="G93" t="n">
-        <v>6.134500000000002</v>
+        <v>4612323.741991788</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +4046,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.99</v>
+        <v>6.13</v>
       </c>
       <c r="C94" t="n">
-        <v>5.87</v>
+        <v>6.11</v>
       </c>
       <c r="D94" t="n">
-        <v>5.99</v>
+        <v>6.13</v>
       </c>
       <c r="E94" t="n">
-        <v>5.87</v>
+        <v>6.11</v>
       </c>
       <c r="F94" t="n">
-        <v>251028.2672</v>
+        <v>204582.2699</v>
       </c>
       <c r="G94" t="n">
-        <v>6.121500000000002</v>
+        <v>4407741.472091788</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4097,7 +4071,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4086,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.98</v>
+        <v>6.11</v>
       </c>
       <c r="C95" t="n">
-        <v>5.98</v>
+        <v>6.34</v>
       </c>
       <c r="D95" t="n">
-        <v>5.98</v>
+        <v>6.35</v>
       </c>
       <c r="E95" t="n">
-        <v>5.98</v>
+        <v>6.11</v>
       </c>
       <c r="F95" t="n">
-        <v>3344.481</v>
+        <v>1967838.5083</v>
       </c>
       <c r="G95" t="n">
-        <v>6.105500000000001</v>
+        <v>6375579.980391788</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4133,7 +4111,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4144,22 +4126,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.88</v>
+        <v>6.34</v>
       </c>
       <c r="C96" t="n">
-        <v>5.79</v>
+        <v>6.25</v>
       </c>
       <c r="D96" t="n">
-        <v>5.88</v>
+        <v>6.34</v>
       </c>
       <c r="E96" t="n">
-        <v>5.79</v>
+        <v>6.2</v>
       </c>
       <c r="F96" t="n">
-        <v>105107.3226</v>
+        <v>1499820.8045</v>
       </c>
       <c r="G96" t="n">
-        <v>6.083000000000001</v>
+        <v>4875759.175891789</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4169,7 +4151,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4180,36 +4166,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.72</v>
+        <v>6.22</v>
       </c>
       <c r="C97" t="n">
-        <v>5.78</v>
+        <v>6.32</v>
       </c>
       <c r="D97" t="n">
-        <v>5.78</v>
+        <v>6.32</v>
       </c>
       <c r="E97" t="n">
-        <v>5.72</v>
+        <v>6.22</v>
       </c>
       <c r="F97" t="n">
-        <v>64315.5391</v>
+        <v>732854.6831</v>
       </c>
       <c r="G97" t="n">
-        <v>6.058500000000001</v>
+        <v>5608613.858991789</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -4222,32 +4206,30 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.86</v>
+        <v>6.25</v>
       </c>
       <c r="C98" t="n">
-        <v>5.86</v>
+        <v>6.21</v>
       </c>
       <c r="D98" t="n">
-        <v>5.86</v>
+        <v>6.29</v>
       </c>
       <c r="E98" t="n">
-        <v>5.86</v>
+        <v>6.21</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>499398.0428</v>
       </c>
       <c r="G98" t="n">
-        <v>6.041000000000002</v>
+        <v>5109215.816191789</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4264,32 +4246,30 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.96</v>
+        <v>6.2</v>
       </c>
       <c r="C99" t="n">
-        <v>5.94</v>
+        <v>6.33</v>
       </c>
       <c r="D99" t="n">
-        <v>5.96</v>
+        <v>6.33</v>
       </c>
       <c r="E99" t="n">
-        <v>5.94</v>
+        <v>6.2</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>786982.6353</v>
       </c>
       <c r="G99" t="n">
-        <v>6.028000000000001</v>
+        <v>5896198.451491789</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -4306,32 +4286,30 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.91</v>
+        <v>6.31</v>
       </c>
       <c r="C100" t="n">
-        <v>5.91</v>
+        <v>6.46</v>
       </c>
       <c r="D100" t="n">
-        <v>5.91</v>
+        <v>6.46</v>
       </c>
       <c r="E100" t="n">
-        <v>5.91</v>
+        <v>6.31</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>2133880.7905</v>
       </c>
       <c r="G100" t="n">
-        <v>6.012000000000001</v>
+        <v>8030079.241991789</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5.94</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
@@ -4348,39 +4326,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.88</v>
+        <v>6.45</v>
       </c>
       <c r="C101" t="n">
-        <v>5.88</v>
+        <v>6.33</v>
       </c>
       <c r="D101" t="n">
-        <v>5.88</v>
+        <v>6.45</v>
       </c>
       <c r="E101" t="n">
-        <v>5.88</v>
+        <v>6.33</v>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>1726322.4406</v>
       </c>
       <c r="G101" t="n">
-        <v>5.998500000000001</v>
+        <v>6303756.801391789</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4388,36 +4364,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.95</v>
+        <v>6.26</v>
       </c>
       <c r="C102" t="n">
-        <v>5.97</v>
+        <v>6.25</v>
       </c>
       <c r="D102" t="n">
-        <v>5.97</v>
+        <v>6.39</v>
       </c>
       <c r="E102" t="n">
-        <v>5.95</v>
+        <v>6.2</v>
       </c>
       <c r="F102" t="n">
-        <v>77734.0336</v>
+        <v>1730252.3939</v>
       </c>
       <c r="G102" t="n">
-        <v>5.990500000000001</v>
+        <v>4573504.407491788</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4428,22 +4400,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.97</v>
+        <v>6.25</v>
       </c>
       <c r="C103" t="n">
-        <v>5.97</v>
+        <v>6.3</v>
       </c>
       <c r="D103" t="n">
-        <v>5.97</v>
+        <v>6.4</v>
       </c>
       <c r="E103" t="n">
-        <v>5.97</v>
+        <v>6.25</v>
       </c>
       <c r="F103" t="n">
-        <v>5042.3785</v>
+        <v>706136.395704375</v>
       </c>
       <c r="G103" t="n">
-        <v>5.9815</v>
+        <v>5279640.803196163</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4453,11 +4425,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4468,38 +4436,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="C104" t="n">
-        <v>5.87</v>
+        <v>6.33</v>
       </c>
       <c r="D104" t="n">
-        <v>5.9</v>
+        <v>6.33</v>
       </c>
       <c r="E104" t="n">
-        <v>5.87</v>
+        <v>6.2</v>
       </c>
       <c r="F104" t="n">
-        <v>69256.83719999999</v>
+        <v>1006474.0673</v>
       </c>
       <c r="G104" t="n">
-        <v>5.976000000000001</v>
+        <v>6286114.870496163</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4510,22 +4472,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.92</v>
+        <v>6.33</v>
       </c>
       <c r="C105" t="n">
-        <v>5.92</v>
+        <v>6.25</v>
       </c>
       <c r="D105" t="n">
-        <v>5.92</v>
+        <v>6.35</v>
       </c>
       <c r="E105" t="n">
-        <v>5.92</v>
+        <v>6.25</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>163522.5876</v>
       </c>
       <c r="G105" t="n">
-        <v>5.971500000000001</v>
+        <v>6122592.282896163</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4535,11 +4497,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4550,22 +4508,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.86</v>
+        <v>6.21</v>
       </c>
       <c r="C106" t="n">
-        <v>5.77</v>
+        <v>6.19</v>
       </c>
       <c r="D106" t="n">
-        <v>5.86</v>
+        <v>6.29</v>
       </c>
       <c r="E106" t="n">
-        <v>5.77</v>
+        <v>6.19</v>
       </c>
       <c r="F106" t="n">
-        <v>253906.8739</v>
+        <v>334280.9217</v>
       </c>
       <c r="G106" t="n">
-        <v>5.955</v>
+        <v>5788311.361196163</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4575,11 +4533,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4590,36 +4544,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.79</v>
+        <v>6.21</v>
       </c>
       <c r="C107" t="n">
-        <v>5.75</v>
+        <v>6.24</v>
       </c>
       <c r="D107" t="n">
-        <v>5.79</v>
+        <v>6.26</v>
       </c>
       <c r="E107" t="n">
-        <v>5.75</v>
+        <v>6.11</v>
       </c>
       <c r="F107" t="n">
-        <v>255462.144</v>
+        <v>381968.7182</v>
       </c>
       <c r="G107" t="n">
-        <v>5.944500000000001</v>
+        <v>6170280.079396163</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4630,36 +4580,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.8</v>
+        <v>6.22</v>
       </c>
       <c r="C108" t="n">
-        <v>5.8</v>
+        <v>6.23</v>
       </c>
       <c r="D108" t="n">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="E108" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="F108" t="n">
-        <v>37181.2037</v>
+        <v>836093.606</v>
       </c>
       <c r="G108" t="n">
-        <v>5.9305</v>
+        <v>5334186.473396163</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4670,36 +4616,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.85</v>
+        <v>6.23</v>
       </c>
       <c r="C109" t="n">
-        <v>5.85</v>
+        <v>6.21</v>
       </c>
       <c r="D109" t="n">
-        <v>5.85</v>
+        <v>6.24</v>
       </c>
       <c r="E109" t="n">
-        <v>5.85</v>
+        <v>6.21</v>
       </c>
       <c r="F109" t="n">
-        <v>10</v>
+        <v>49199.0589</v>
       </c>
       <c r="G109" t="n">
-        <v>5.919</v>
+        <v>5284987.414496164</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4710,36 +4652,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.85</v>
+        <v>6.15</v>
       </c>
       <c r="C110" t="n">
-        <v>5.87</v>
+        <v>6.2</v>
       </c>
       <c r="D110" t="n">
-        <v>5.87</v>
+        <v>6.2</v>
       </c>
       <c r="E110" t="n">
-        <v>5.85</v>
+        <v>6.1</v>
       </c>
       <c r="F110" t="n">
-        <v>64690.2684</v>
+        <v>71172.6642</v>
       </c>
       <c r="G110" t="n">
-        <v>5.907500000000001</v>
+        <v>5213814.750296164</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4750,36 +4688,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.87</v>
+        <v>6.11</v>
       </c>
       <c r="C111" t="n">
-        <v>5.88</v>
+        <v>6.1</v>
       </c>
       <c r="D111" t="n">
-        <v>5.88</v>
+        <v>6.17</v>
       </c>
       <c r="E111" t="n">
-        <v>5.87</v>
+        <v>6.1</v>
       </c>
       <c r="F111" t="n">
-        <v>120952.8497</v>
+        <v>445552.778</v>
       </c>
       <c r="G111" t="n">
-        <v>5.896500000000001</v>
+        <v>4768261.972296164</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4790,36 +4724,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.93</v>
+        <v>6.15</v>
       </c>
       <c r="C112" t="n">
-        <v>5.93</v>
+        <v>6.14</v>
       </c>
       <c r="D112" t="n">
-        <v>5.93</v>
+        <v>6.15</v>
       </c>
       <c r="E112" t="n">
-        <v>5.93</v>
+        <v>6.05</v>
       </c>
       <c r="F112" t="n">
-        <v>1732.0404</v>
+        <v>762268.3545</v>
       </c>
       <c r="G112" t="n">
-        <v>5.893000000000001</v>
+        <v>5530530.326796165</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4830,22 +4760,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="C113" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="D113" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="E113" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="F113" t="n">
-        <v>4141.7081</v>
+        <v>407913.9766</v>
       </c>
       <c r="G113" t="n">
-        <v>5.887500000000001</v>
+        <v>5122616.350196165</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4855,37 +4785,33 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
-        <v>1.143362831858407</v>
-      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.81</v>
+        <v>6.01</v>
       </c>
       <c r="C114" t="n">
-        <v>5.74</v>
+        <v>6.18</v>
       </c>
       <c r="D114" t="n">
-        <v>5.81</v>
+        <v>6.18</v>
       </c>
       <c r="E114" t="n">
-        <v>5.74</v>
+        <v>6.01</v>
       </c>
       <c r="F114" t="n">
-        <v>191038.0744</v>
+        <v>88935.5986</v>
       </c>
       <c r="G114" t="n">
-        <v>5.878500000000001</v>
+        <v>5211551.948796165</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4906,22 +4832,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.77</v>
+        <v>6.19</v>
       </c>
       <c r="C115" t="n">
-        <v>5.86</v>
+        <v>6.17</v>
       </c>
       <c r="D115" t="n">
-        <v>5.86</v>
+        <v>6.19</v>
       </c>
       <c r="E115" t="n">
-        <v>5.77</v>
+        <v>6.17</v>
       </c>
       <c r="F115" t="n">
-        <v>18643.691270307</v>
+        <v>20</v>
       </c>
       <c r="G115" t="n">
-        <v>5.868</v>
+        <v>5211531.948796165</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4942,22 +4868,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="C116" t="n">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>5.86</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>438.1601</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>5.867000000000001</v>
+        <v>5211521.948796165</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4973,6 +4899,1050 @@
       </c>
       <c r="N116" t="inlineStr"/>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F117" t="n">
+        <v>21742.5273</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5233264.476096165</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24340.2343</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5233264.476096165</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10075.1308</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5223189.345296165</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5223199.345296165</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F121" t="n">
+        <v>30851.461</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5192347.884296165</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F122" t="n">
+        <v>7171.8839</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5192347.884296165</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F123" t="n">
+        <v>251028.2672</v>
+      </c>
+      <c r="G123" t="n">
+        <v>4941319.617096165</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3344.481</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4944664.098096165</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F125" t="n">
+        <v>105107.3226</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4839556.775496165</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="F126" t="n">
+        <v>64315.5391</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4775241.236396166</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10</v>
+      </c>
+      <c r="G127" t="n">
+        <v>4775251.236396166</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4775271.236396166</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10</v>
+      </c>
+      <c r="G129" t="n">
+        <v>4775261.236396166</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>4770261.236396166</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F131" t="n">
+        <v>77734.0336</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4847995.269996165</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5042.3785</v>
+      </c>
+      <c r="G132" t="n">
+        <v>4847995.269996165</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F133" t="n">
+        <v>69256.83719999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>4778738.432796165</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="n">
+        <v>4778748.432796165</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F135" t="n">
+        <v>253906.8739</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4524841.558896165</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F136" t="n">
+        <v>255462.144</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4269379.414896165</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>37181.2037</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4306560.618596165</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F138" t="n">
+        <v>10</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4306570.618596165</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F139" t="n">
+        <v>64690.2684</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4371260.886996166</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F140" t="n">
+        <v>120952.8497</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4492213.736696166</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1732.0404</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4493945.777096166</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4141.7081</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4489804.068996166</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F143" t="n">
+        <v>191038.0744</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4298765.994596166</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18643.691270307</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4317409.685866472</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F145" t="n">
+        <v>438.1601</v>
+      </c>
+      <c r="G145" t="n">
+        <v>4317409.685866472</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,24 +1441,15 @@
         <v>-1468023.309910826</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1578,24 +1474,21 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>5.72</v>
       </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1620,24 +1513,19 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,24 +1550,21 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>5.65</v>
       </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1704,24 +1589,21 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>5.72</v>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1746,24 +1628,19 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1790,20 +1667,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1830,20 +1704,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1870,20 +1741,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1910,20 +1778,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1948,24 +1813,19 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1990,24 +1850,19 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2032,24 +1887,21 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>5.72</v>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2074,24 +1926,19 @@
         <v>-1809679.399310826</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2118,20 +1965,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2158,20 +2002,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2198,20 +2039,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2238,20 +2076,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2278,20 +2113,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2318,20 +2150,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2358,20 +2187,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2398,20 +2224,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2438,20 +2261,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2478,20 +2298,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,20 +2335,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2558,20 +2372,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2598,20 +2409,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2638,20 +2446,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2678,20 +2483,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2718,20 +2520,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2758,20 +2557,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2798,20 +2594,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2838,20 +2631,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2878,20 +2668,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2918,20 +2705,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2958,20 +2742,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2996,24 +2777,19 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3038,24 +2814,21 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>5.67</v>
       </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3080,24 +2853,21 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>5.68</v>
       </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3122,24 +2892,21 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>5.68</v>
       </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3164,24 +2931,21 @@
         <v>-2192700.741440792</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>5.68</v>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3206,24 +2970,21 @@
         <v>-2144304.235740792</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>5.71</v>
       </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3248,24 +3009,21 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
         <v>5.73</v>
       </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3290,24 +3048,21 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
         <v>5.74</v>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3332,24 +3087,19 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3374,24 +3124,19 @@
         <v>-2194596.219940791</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,24 +3161,21 @@
         <v>-2185900.567766878</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>5.7</v>
       </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3458,24 +3200,21 @@
         <v>-2063249.614540791</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>5.75</v>
       </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3500,24 +3239,19 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3542,24 +3276,19 @@
         <v>-1774209.159240791</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3586,20 +3315,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3626,20 +3352,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3666,20 +3389,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3706,20 +3426,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3746,20 +3463,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3786,20 +3500,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3826,20 +3537,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3866,20 +3574,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3906,20 +3611,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3946,20 +3648,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3986,20 +3685,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4026,20 +3722,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4066,20 +3759,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4104,22 +3794,17 @@
         <v>6375579.980391788</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4146,20 +3831,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4186,20 +3864,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4226,20 +3897,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4266,20 +3930,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4304,22 +3961,15 @@
         <v>8030079.241991789</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4346,18 +3996,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L101" t="n">
+        <v>1</v>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4382,18 +4027,15 @@
         <v>4573504.407491788</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4418,18 +4060,15 @@
         <v>5279640.803196163</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4454,18 +4093,15 @@
         <v>6286114.870496163</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4490,18 +4126,15 @@
         <v>6122592.282896163</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4526,18 +4159,15 @@
         <v>5788311.361196163</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4562,18 +4192,15 @@
         <v>6170280.079396163</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4600,16 +4227,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4634,18 +4258,15 @@
         <v>5284987.414496164</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4672,16 +4293,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4708,16 +4326,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,16 +4359,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4780,16 +4392,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4814,18 +4423,15 @@
         <v>5211551.948796165</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4850,18 +4456,15 @@
         <v>5211531.948796165</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4886,18 +4489,15 @@
         <v>5211521.948796165</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4924,16 +4524,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4958,18 +4555,15 @@
         <v>5233264.476096165</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4994,18 +4588,15 @@
         <v>5223189.345296165</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5032,16 +4623,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5068,16 +4656,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5102,18 +4687,15 @@
         <v>5192347.884296165</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5138,18 +4720,15 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5176,16 +4755,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5212,16 +4788,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5246,18 +4819,15 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5284,16 +4854,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5320,16 +4887,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5356,16 +4920,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5392,16 +4953,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5426,18 +4984,15 @@
         <v>4847995.269996165</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,18 +5017,15 @@
         <v>4847995.269996165</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5500,16 +5052,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5536,16 +5085,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5572,16 +5118,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5608,16 +5151,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5644,16 +5184,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5680,16 +5217,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5716,16 +5250,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5752,16 +5283,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5788,16 +5316,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5824,16 +5349,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5860,16 +5382,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5896,16 +5415,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5932,18 +5448,15 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,10 +1408,14 @@
         <v>-1542574.309910826</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.64</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1441,11 +1445,19 @@
         <v>-1468023.309910826</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,15 +1486,17 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>5.72</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.64</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1513,15 +1527,15 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1550,15 +1564,17 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.65</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1589,15 +1605,17 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5.72</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.65</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1628,15 +1646,15 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1665,13 +1683,17 @@
         <v>-1582347.929910826</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1702,13 +1724,17 @@
         <v>-1591708.709510826</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1739,13 +1765,17 @@
         <v>-1508994.919410826</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1776,10 +1806,14 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1813,10 +1847,14 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,10 +1888,14 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1887,12 +1929,14 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>5.72</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,10 +1970,14 @@
         <v>-1809679.399310826</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1963,10 +2011,14 @@
         <v>-1463285.267210826</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,10 +2052,14 @@
         <v>-1463275.267210826</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2077,7 +2135,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2114,7 +2174,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2151,7 +2213,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,7 +2252,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2225,7 +2291,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2262,7 +2330,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2299,7 +2369,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2336,7 +2408,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,7 +2447,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,10 +2483,14 @@
         <v>-2051405.548610826</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,10 +2524,14 @@
         <v>-2034424.988210826</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,10 +2565,14 @@
         <v>-2036564.210810826</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2518,10 +2606,14 @@
         <v>-2026564.210810826</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2555,10 +2647,14 @@
         <v>-2019251.493040792</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J62" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,10 +2688,14 @@
         <v>-2019051.493040792</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,10 +2729,14 @@
         <v>-2206703.641240792</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,10 +2770,14 @@
         <v>-2206637.907440792</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,10 +2811,14 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,10 +2852,14 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J67" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,10 +2893,14 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,12 +2934,14 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.67</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,12 +2975,14 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>5.68</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,12 +3016,14 @@
         <v>-2206992.907440792</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5.68</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,12 +3057,14 @@
         <v>-2192700.741440792</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>5.68</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,12 +3098,14 @@
         <v>-2144304.235740792</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>5.71</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,12 +3139,14 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>5.73</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,12 +3180,14 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>5.74</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,10 +3221,14 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,10 +3262,14 @@
         <v>-2194596.219940791</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,12 +3303,14 @@
         <v>-2185900.567766878</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>5.7</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,12 +3344,12 @@
         <v>-2063249.614540791</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,10 +3383,14 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3427,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,7 +3466,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,7 +3505,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,10 +3541,14 @@
         <v>-2288383.042240791</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,10 +3582,14 @@
         <v>-2234350.903240792</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,10 +3623,14 @@
         <v>-2234330.903240792</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3498,10 +3664,14 @@
         <v>-2234320.903240792</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,10 +3705,14 @@
         <v>-2245024.983640791</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3572,10 +3746,14 @@
         <v>-1935438.359140791</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,10 +3787,14 @@
         <v>-1987938.359140791</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3649,7 +3831,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3686,7 +3870,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3723,7 +3909,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3760,7 +3948,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3794,16 +3984,20 @@
         <v>6375579.980391788</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.72</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3832,8 +4026,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +4065,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +4104,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3931,8 +4143,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +4179,17 @@
         <v>8030079.241991789</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +4221,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +4257,17 @@
         <v>4573504.407491788</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4060,11 +4296,17 @@
         <v>5279640.803196163</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4335,17 @@
         <v>6286114.870496163</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +4374,17 @@
         <v>6122592.282896163</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +4413,17 @@
         <v>5788311.361196163</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +4452,17 @@
         <v>6170280.079396163</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4494,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4530,17 @@
         <v>5284987.414496164</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4572,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4611,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4360,8 +4650,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4393,8 +4689,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4725,17 @@
         <v>5211551.948796165</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4764,17 @@
         <v>5211531.948796165</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4803,17 @@
         <v>5211521.948796165</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +4845,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4881,17 @@
         <v>5233264.476096165</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4920,17 @@
         <v>5223189.345296165</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4962,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5001,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +5037,17 @@
         <v>5192347.884296165</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +5076,17 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +5118,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +5157,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +5193,17 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +5235,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +5274,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4921,8 +5313,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5352,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +5388,17 @@
         <v>4847995.269996165</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +5427,17 @@
         <v>4847995.269996165</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5469,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5083,13 +5505,19 @@
         <v>4778748.432796165</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>1.029965034965035</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -5116,7 +5544,7 @@
         <v>4524841.558896165</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5149,7 +5577,7 @@
         <v>4269379.414896165</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5182,7 +5610,7 @@
         <v>4306560.618596165</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5215,7 +5643,7 @@
         <v>4306570.618596165</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5248,7 +5676,7 @@
         <v>4371260.886996166</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5281,7 +5709,7 @@
         <v>4492213.736696166</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5314,7 +5742,7 @@
         <v>4493945.777096166</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5347,7 +5775,7 @@
         <v>4489804.068996166</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5380,7 +5808,7 @@
         <v>4298765.994596166</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5413,7 +5841,7 @@
         <v>4317409.685866472</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5446,7 +5874,7 @@
         <v>4317409.685866472</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5457,6 +5885,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,14 +1408,10 @@
         <v>-1542574.309910826</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1445,19 +1441,11 @@
         <v>-1468023.309910826</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J32" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1486,19 +1474,11 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1527,14 +1507,10 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1564,19 +1540,11 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1605,19 +1573,11 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1646,14 +1606,10 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1683,19 +1639,11 @@
         <v>-1582347.929910826</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1724,19 +1672,11 @@
         <v>-1591708.709510826</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1765,19 +1705,11 @@
         <v>-1508994.919410826</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1806,19 +1738,11 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1847,19 +1771,11 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1888,19 +1804,11 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1929,19 +1837,11 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1970,19 +1870,11 @@
         <v>-1809679.399310826</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +1903,11 @@
         <v>-1463285.267210826</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J46" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2052,19 +1936,11 @@
         <v>-1463275.267210826</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2330,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2369,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2408,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2447,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2483,19 +2299,11 @@
         <v>-2051405.548610826</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2524,19 +2332,11 @@
         <v>-2034424.988210826</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="J59" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2565,19 +2365,11 @@
         <v>-2036564.210810826</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2606,19 +2398,11 @@
         <v>-2026564.210810826</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2647,19 +2431,11 @@
         <v>-2019251.493040792</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2688,19 +2464,11 @@
         <v>-2019051.493040792</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2729,19 +2497,11 @@
         <v>-2206703.641240792</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2770,19 +2530,11 @@
         <v>-2206637.907440792</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2811,19 +2563,11 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2852,19 +2596,11 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J67" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2893,19 +2629,11 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J68" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2940,13 +2668,9 @@
         <v>5.67</v>
       </c>
       <c r="J69" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.67</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2705,11 @@
         <v>5.68</v>
       </c>
       <c r="J70" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -3022,11 +2746,11 @@
         <v>5.68</v>
       </c>
       <c r="J71" t="n">
-        <v>5.72</v>
+        <v>5.67</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -3063,13 +2787,9 @@
         <v>5.68</v>
       </c>
       <c r="J72" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.68</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3104,11 +2824,11 @@
         <v>5.71</v>
       </c>
       <c r="J73" t="n">
-        <v>5.72</v>
+        <v>5.68</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -3145,11 +2865,11 @@
         <v>5.73</v>
       </c>
       <c r="J74" t="n">
-        <v>5.72</v>
+        <v>5.68</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -3186,13 +2906,9 @@
         <v>5.74</v>
       </c>
       <c r="J75" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>5.74</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3221,17 +2937,15 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3268,11 +2982,11 @@
         <v>5.74</v>
       </c>
       <c r="J77" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3309,7 +3023,7 @@
         <v>5.7</v>
       </c>
       <c r="J78" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3344,11 +3058,13 @@
         <v>-2063249.614540791</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.75</v>
+      </c>
       <c r="J79" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3383,13 +3099,11 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3428,7 +3142,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3467,7 +3181,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3506,7 +3220,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3541,13 +3255,11 @@
         <v>-2288383.042240791</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3582,13 +3294,11 @@
         <v>-2234350.903240792</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3623,13 +3333,11 @@
         <v>-2234330.903240792</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3664,13 +3372,11 @@
         <v>-2234320.903240792</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3705,13 +3411,11 @@
         <v>-2245024.983640791</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3746,13 +3450,11 @@
         <v>-1935438.359140791</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3787,13 +3489,11 @@
         <v>-1987938.359140791</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3832,7 +3532,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3871,7 +3571,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3910,7 +3610,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3949,7 +3649,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3988,7 +3688,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4027,7 +3727,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4066,7 +3766,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4105,7 +3805,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4144,7 +3844,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4183,7 +3883,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4222,7 +3922,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4261,7 +3961,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4300,7 +4000,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4339,7 +4039,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4378,7 +4078,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4417,7 +4117,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4456,7 +4156,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4495,7 +4195,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4534,7 +4234,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4573,7 +4273,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4612,7 +4312,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4651,7 +4351,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4690,7 +4390,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4729,7 +4429,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4768,7 +4468,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4807,7 +4507,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4846,7 +4546,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4885,7 +4585,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4924,7 +4624,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4963,7 +4663,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5002,7 +4702,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5041,7 +4741,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5076,19 +4776,19 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5.72</v>
+        <v>5.74</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.017648083623693</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -5115,17 +4815,11 @@
         <v>4944664.098096165</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5154,17 +4848,11 @@
         <v>4839556.775496165</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5193,17 +4881,11 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5235,14 +4917,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5274,14 +4950,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5313,14 +4983,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5352,14 +5016,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5391,14 +5049,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5430,14 +5082,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5469,14 +5115,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5505,19 +5145,13 @@
         <v>4778748.432796165</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
-        <v>1.029965034965035</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -5544,7 +5178,7 @@
         <v>4524841.558896165</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5577,7 +5211,7 @@
         <v>4269379.414896165</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5610,7 +5244,7 @@
         <v>4306560.618596165</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5643,7 +5277,7 @@
         <v>4306570.618596165</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5676,7 +5310,7 @@
         <v>4371260.886996166</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5709,7 +5343,7 @@
         <v>4492213.736696166</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5742,7 +5376,7 @@
         <v>4493945.777096166</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5775,7 +5409,7 @@
         <v>4489804.068996166</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5808,7 +5442,7 @@
         <v>4298765.994596166</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5841,7 +5475,7 @@
         <v>4317409.685866472</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5874,7 +5508,7 @@
         <v>4317409.685866472</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5885,6 +5519,6 @@
       <c r="M145" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -1474,11 +1474,17 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1513,17 @@
         <v>-1541648.839910826</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1552,17 @@
         <v>-1533944.876110826</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.65</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1595,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1632,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1669,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1706,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1743,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1780,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1813,17 @@
         <v>-1493592.425910826</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1852,17 @@
         <v>-1485783.311210826</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1891,17 @@
         <v>-1851182.276010826</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.72</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1930,17 @@
         <v>-1809679.399310826</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1969,17 @@
         <v>-1463285.267210826</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2008,17 @@
         <v>-1463275.267210826</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5.78</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2051,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2088,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2125,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2162,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2199,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2236,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2273,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2310,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2347,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2384,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2421,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2454,17 @@
         <v>-2034424.988210826</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.66</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2497,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2530,17 @@
         <v>-2026564.210810826</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2573,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2610,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2647,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2684,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2717,17 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5.71</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2756,17 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2795,17 @@
         <v>-2207061.907440792</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5.67</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2667,10 +2839,12 @@
       <c r="I69" t="n">
         <v>5.67</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2704,12 +2878,10 @@
       <c r="I70" t="n">
         <v>5.68</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2745,12 +2917,10 @@
       <c r="I71" t="n">
         <v>5.68</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.67</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L71" t="n">
@@ -2786,10 +2956,12 @@
       <c r="I72" t="n">
         <v>5.68</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2823,12 +2995,10 @@
       <c r="I73" t="n">
         <v>5.71</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L73" t="n">
@@ -2864,12 +3034,10 @@
       <c r="I74" t="n">
         <v>5.73</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.68</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2905,10 +3073,12 @@
       <c r="I75" t="n">
         <v>5.74</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2937,15 +3107,15 @@
         <v>-2144018.235740792</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>5.74</v>
       </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2981,12 +3151,10 @@
       <c r="I77" t="n">
         <v>5.74</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3022,9 +3190,7 @@
       <c r="I78" t="n">
         <v>5.7</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3063,9 +3229,7 @@
       <c r="I79" t="n">
         <v>5.75</v>
       </c>
-      <c r="J79" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,12 +3263,12 @@
         <v>-1774219.159240791</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,12 +3302,12 @@
         <v>-1774209.159240791</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,12 +3341,12 @@
         <v>-2098716.380440791</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,12 +3380,12 @@
         <v>-2283176.952140791</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,12 +3419,12 @@
         <v>-2288383.042240791</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
         <v>5.74</v>
       </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3294,12 +3458,12 @@
         <v>-2234350.903240792</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,12 +3497,12 @@
         <v>-2234330.903240792</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3372,12 +3536,12 @@
         <v>-2234320.903240792</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3411,12 +3575,12 @@
         <v>-2245024.983640791</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>5.74</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3492,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3531,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3570,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3609,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3918,20 +4058,16 @@
         <v>6303756.801391789</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -3957,17 +4093,11 @@
         <v>4573504.407491788</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +4126,11 @@
         <v>5279640.803196163</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +4159,11 @@
         <v>6286114.870496163</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +4192,11 @@
         <v>6122592.282896163</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +4225,11 @@
         <v>5788311.361196163</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +4258,11 @@
         <v>6170280.079396163</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4191,17 +4291,11 @@
         <v>5334186.473396163</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4230,17 +4324,11 @@
         <v>5284987.414496164</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4272,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4311,14 +4393,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4350,14 +4426,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +4459,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4428,14 +4492,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4467,14 +4525,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4506,14 +4558,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4545,14 +4591,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4624,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4623,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4662,14 +4690,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4701,14 +4723,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4740,14 +4756,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4786,13 @@
         <v>4941319.617096165</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>1.017648083623693</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4815,7 +4819,7 @@
         <v>4944664.098096165</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4848,7 +4852,7 @@
         <v>4839556.775496165</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4881,7 +4885,7 @@
         <v>4775241.236396166</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest HYC.xlsx
+++ b/BackTest/2019-10-30 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>232</v>
       </c>
       <c r="G2" t="n">
-        <v>507572.2894225081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>188</v>
       </c>
       <c r="G3" t="n">
-        <v>507572.2894225081</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>507572.2894225081</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>111111</v>
       </c>
       <c r="G5" t="n">
-        <v>396461.2894225081</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>101</v>
       </c>
       <c r="G6" t="n">
-        <v>396562.2894225081</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>41785</v>
       </c>
       <c r="G7" t="n">
-        <v>354777.2894225081</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>11010</v>
       </c>
       <c r="G8" t="n">
-        <v>365787.2894225081</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9082.8379</v>
       </c>
       <c r="G9" t="n">
-        <v>374870.1273225081</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>374870.1273225081</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>144</v>
       </c>
       <c r="G11" t="n">
-        <v>374870.1273225081</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>101408.7176</v>
       </c>
       <c r="G12" t="n">
-        <v>273461.409722508</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>273472.409722508</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>273441.409722508</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>212.5214</v>
       </c>
       <c r="G15" t="n">
-        <v>273441.409722508</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>400000</v>
       </c>
       <c r="G16" t="n">
-        <v>-126558.590277492</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>203402.916</v>
       </c>
       <c r="G17" t="n">
-        <v>76844.32572250805</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>76854.32572250805</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>139501.0614</v>
       </c>
       <c r="G19" t="n">
-        <v>-62646.73567749196</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>74858.80526666599</v>
       </c>
       <c r="G20" t="n">
-        <v>12212.06958917403</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>336102.5853</v>
       </c>
       <c r="G21" t="n">
-        <v>-323890.5157108259</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3224.9048</v>
       </c>
       <c r="G22" t="n">
-        <v>-320665.6109108259</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>59999.625</v>
       </c>
       <c r="G23" t="n">
-        <v>-380665.2359108259</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>500000</v>
       </c>
       <c r="G24" t="n">
-        <v>-380665.2359108259</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>124984.0025</v>
       </c>
       <c r="G25" t="n">
-        <v>-380665.2359108259</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>73085.85679999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-380665.2359108259</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>881316.4983</v>
       </c>
       <c r="G27" t="n">
-        <v>-1261981.734210826</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>5679.307</v>
       </c>
       <c r="G28" t="n">
-        <v>-1256302.427210826</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>450000</v>
       </c>
       <c r="G29" t="n">
-        <v>-1706302.427210826</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>74858.8052</v>
       </c>
       <c r="G30" t="n">
-        <v>-1631443.622010826</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>88869.3121</v>
       </c>
       <c r="G31" t="n">
-        <v>-1542574.309910826</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>74551</v>
       </c>
       <c r="G32" t="n">
-        <v>-1468023.309910826</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,24 +1373,15 @@
         <v>73625.53</v>
       </c>
       <c r="G33" t="n">
-        <v>-1541648.839910826</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1510,24 +1403,19 @@
         <v>981.87</v>
       </c>
       <c r="G34" t="n">
-        <v>-1541648.839910826</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>5.65</v>
       </c>
       <c r="I34" t="n">
         <v>5.65</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1549,24 +1437,23 @@
         <v>7703.9638</v>
       </c>
       <c r="G35" t="n">
-        <v>-1533944.876110826</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>5.65</v>
       </c>
       <c r="I35" t="n">
         <v>5.65</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1588,22 +1475,21 @@
         <v>13037.4719</v>
       </c>
       <c r="G36" t="n">
-        <v>-1533944.876110826</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1625,22 +1511,15 @@
         <v>121178.6691</v>
       </c>
       <c r="G37" t="n">
-        <v>-1533944.876110826</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1662,22 +1541,15 @@
         <v>48403.0538</v>
       </c>
       <c r="G38" t="n">
-        <v>-1582347.929910826</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1699,22 +1571,15 @@
         <v>9360.7796</v>
       </c>
       <c r="G39" t="n">
-        <v>-1591708.709510826</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1736,22 +1601,15 @@
         <v>82713.7901</v>
       </c>
       <c r="G40" t="n">
-        <v>-1508994.919410826</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1773,22 +1631,15 @@
         <v>15402.4935</v>
       </c>
       <c r="G41" t="n">
-        <v>-1493592.425910826</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1810,24 +1661,15 @@
         <v>36421.4685</v>
       </c>
       <c r="G42" t="n">
-        <v>-1493592.425910826</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1849,24 +1691,15 @@
         <v>7809.1147</v>
       </c>
       <c r="G43" t="n">
-        <v>-1485783.311210826</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1888,24 +1721,15 @@
         <v>365398.9648</v>
       </c>
       <c r="G44" t="n">
-        <v>-1851182.276010826</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1927,24 +1751,15 @@
         <v>41502.8767</v>
       </c>
       <c r="G45" t="n">
-        <v>-1809679.399310826</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1966,24 +1781,15 @@
         <v>346394.1321</v>
       </c>
       <c r="G46" t="n">
-        <v>-1463285.267210826</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2005,24 +1811,15 @@
         <v>10</v>
       </c>
       <c r="G47" t="n">
-        <v>-1463275.267210826</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2044,22 +1841,15 @@
         <v>17132.1418</v>
       </c>
       <c r="G48" t="n">
-        <v>-1463275.267210826</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2081,22 +1871,15 @@
         <v>1794.1468</v>
       </c>
       <c r="G49" t="n">
-        <v>-1463275.267210826</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2118,22 +1901,15 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>-1463265.267210826</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2155,22 +1931,15 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-1463255.267210826</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2192,22 +1961,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>-1463245.267210826</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2229,22 +1991,15 @@
         <v>15878.2905</v>
       </c>
       <c r="G53" t="n">
-        <v>-1479123.557710826</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2266,22 +2021,15 @@
         <v>184756.1597</v>
       </c>
       <c r="G54" t="n">
-        <v>-1663879.717410826</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,22 +2051,15 @@
         <v>5181.3471</v>
       </c>
       <c r="G55" t="n">
-        <v>-1658698.370310826</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2340,22 +2081,15 @@
         <v>253515.5355</v>
       </c>
       <c r="G56" t="n">
-        <v>-1912213.905810826</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2377,22 +2111,15 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-1912223.905810826</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,22 +2141,15 @@
         <v>139181.6428</v>
       </c>
       <c r="G58" t="n">
-        <v>-2051405.548610826</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2451,24 +2171,15 @@
         <v>16980.5604</v>
       </c>
       <c r="G59" t="n">
-        <v>-2034424.988210826</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>5.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2490,22 +2201,15 @@
         <v>2139.2226</v>
       </c>
       <c r="G60" t="n">
-        <v>-2036564.210810826</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,24 +2231,15 @@
         <v>10000</v>
       </c>
       <c r="G61" t="n">
-        <v>-2026564.210810826</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2566,22 +2261,15 @@
         <v>7312.717770034</v>
       </c>
       <c r="G62" t="n">
-        <v>-2019251.493040792</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2603,22 +2291,15 @@
         <v>200</v>
       </c>
       <c r="G63" t="n">
-        <v>-2019051.493040792</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2640,22 +2321,15 @@
         <v>187652.1482</v>
       </c>
       <c r="G64" t="n">
-        <v>-2206703.641240792</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2677,22 +2351,15 @@
         <v>65.7338</v>
       </c>
       <c r="G65" t="n">
-        <v>-2206637.907440792</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2714,24 +2381,15 @@
         <v>424</v>
       </c>
       <c r="G66" t="n">
-        <v>-2207061.907440792</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2753,24 +2411,15 @@
         <v>2361</v>
       </c>
       <c r="G67" t="n">
-        <v>-2207061.907440792</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2792,24 +2441,15 @@
         <v>1104</v>
       </c>
       <c r="G68" t="n">
-        <v>-2207061.907440792</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2831,24 +2471,15 @@
         <v>69</v>
       </c>
       <c r="G69" t="n">
-        <v>-2206992.907440792</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2870,24 +2501,15 @@
         <v>1035</v>
       </c>
       <c r="G70" t="n">
-        <v>-2206992.907440792</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2909,24 +2531,15 @@
         <v>61264.3946</v>
       </c>
       <c r="G71" t="n">
-        <v>-2206992.907440792</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2948,24 +2561,15 @@
         <v>14292.166</v>
       </c>
       <c r="G72" t="n">
-        <v>-2192700.741440792</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2987,24 +2591,15 @@
         <v>48396.5057</v>
       </c>
       <c r="G73" t="n">
-        <v>-2144304.235740792</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3026,24 +2621,15 @@
         <v>286</v>
       </c>
       <c r="G74" t="n">
-        <v>-2144018.235740792</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3065,24 +2651,15 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>-2144018.235740792</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3104,24 +2681,15 @@
         <v>138374.1946</v>
       </c>
       <c r="G76" t="n">
-        <v>-2144018.235740792</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3143,24 +2711,15 @@
         <v>50577.9842</v>
       </c>
       <c r="G77" t="n">
-        <v>-2194596.219940791</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3182,24 +2741,15 @@
         <v>8695.652173913</v>
       </c>
       <c r="G78" t="n">
-        <v>-2185900.567766878</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3221,24 +2771,15 @@
         <v>122650.953226087</v>
       </c>
       <c r="G79" t="n">
-        <v>-2063249.614540791</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3260,24 +2801,15 @@
         <v>289030.4553</v>
       </c>
       <c r="G80" t="n">
-        <v>-1774219.159240791</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3299,24 +2831,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-1774209.159240791</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,24 +2861,15 @@
         <v>324507.2212</v>
       </c>
       <c r="G82" t="n">
-        <v>-2098716.380440791</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3377,24 +2891,15 @@
         <v>184460.5717</v>
       </c>
       <c r="G83" t="n">
-        <v>-2283176.952140791</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3416,24 +2921,15 @@
         <v>5206.0901</v>
       </c>
       <c r="G84" t="n">
-        <v>-2288383.042240791</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3455,24 +2951,15 @@
         <v>54032.139</v>
       </c>
       <c r="G85" t="n">
-        <v>-2234350.903240792</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3494,24 +2981,15 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>-2234330.903240792</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3533,24 +3011,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-2234320.903240792</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,24 +3041,15 @@
         <v>10704.0804</v>
       </c>
       <c r="G88" t="n">
-        <v>-2245024.983640791</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3611,22 +3071,15 @@
         <v>309586.6245</v>
       </c>
       <c r="G89" t="n">
-        <v>-1935438.359140791</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3648,22 +3101,15 @@
         <v>52500</v>
       </c>
       <c r="G90" t="n">
-        <v>-1987938.359140791</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3685,22 +3131,15 @@
         <v>3883398.8008</v>
       </c>
       <c r="G91" t="n">
-        <v>1895460.441659208</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3722,22 +3161,15 @@
         <v>1269977.782</v>
       </c>
       <c r="G92" t="n">
-        <v>3165438.223659208</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3759,22 +3191,15 @@
         <v>1446885.51833258</v>
       </c>
       <c r="G93" t="n">
-        <v>4612323.741991788</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3796,22 +3221,15 @@
         <v>204582.2699</v>
       </c>
       <c r="G94" t="n">
-        <v>4407741.472091788</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3833,22 +3251,15 @@
         <v>1967838.5083</v>
       </c>
       <c r="G95" t="n">
-        <v>6375579.980391788</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3870,22 +3281,15 @@
         <v>1499820.8045</v>
       </c>
       <c r="G96" t="n">
-        <v>4875759.175891789</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3907,22 +3311,15 @@
         <v>732854.6831</v>
       </c>
       <c r="G97" t="n">
-        <v>5608613.858991789</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3944,22 +3341,15 @@
         <v>499398.0428</v>
       </c>
       <c r="G98" t="n">
-        <v>5109215.816191789</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3981,22 +3371,15 @@
         <v>786982.6353</v>
       </c>
       <c r="G99" t="n">
-        <v>5896198.451491789</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4018,22 +3401,15 @@
         <v>2133880.7905</v>
       </c>
       <c r="G100" t="n">
-        <v>8030079.241991789</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4055,20 +3431,15 @@
         <v>1726322.4406</v>
       </c>
       <c r="G101" t="n">
-        <v>6303756.801391789</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K101" t="n">
+        <v>1</v>
       </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4090,18 +3461,15 @@
         <v>1730252.3939</v>
       </c>
       <c r="G102" t="n">
-        <v>4573504.407491788</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4123,18 +3491,15 @@
         <v>706136.395704375</v>
       </c>
       <c r="G103" t="n">
-        <v>5279640.803196163</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4156,18 +3521,15 @@
         <v>1006474.0673</v>
       </c>
       <c r="G104" t="n">
-        <v>6286114.870496163</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4189,18 +3551,15 @@
         <v>163522.5876</v>
       </c>
       <c r="G105" t="n">
-        <v>6122592.282896163</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,18 +3581,15 @@
         <v>334280.9217</v>
       </c>
       <c r="G106" t="n">
-        <v>5788311.361196163</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4255,18 +3611,15 @@
         <v>381968.7182</v>
       </c>
       <c r="G107" t="n">
-        <v>6170280.079396163</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4288,18 +3641,15 @@
         <v>836093.606</v>
       </c>
       <c r="G108" t="n">
-        <v>5334186.473396163</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4321,18 +3671,15 @@
         <v>49199.0589</v>
       </c>
       <c r="G109" t="n">
-        <v>5284987.414496164</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4354,18 +3701,15 @@
         <v>71172.6642</v>
       </c>
       <c r="G110" t="n">
-        <v>5213814.750296164</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4387,18 +3731,15 @@
         <v>445552.778</v>
       </c>
       <c r="G111" t="n">
-        <v>4768261.972296164</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4420,18 +3761,15 @@
         <v>762268.3545</v>
       </c>
       <c r="G112" t="n">
-        <v>5530530.326796165</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4453,18 +3791,15 @@
         <v>407913.9766</v>
       </c>
       <c r="G113" t="n">
-        <v>5122616.350196165</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4486,18 +3821,15 @@
         <v>88935.5986</v>
       </c>
       <c r="G114" t="n">
-        <v>5211551.948796165</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4519,18 +3851,15 @@
         <v>20</v>
       </c>
       <c r="G115" t="n">
-        <v>5211531.948796165</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4552,18 +3881,15 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>5211521.948796165</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4585,18 +3911,15 @@
         <v>21742.5273</v>
       </c>
       <c r="G117" t="n">
-        <v>5233264.476096165</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4618,18 +3941,15 @@
         <v>24340.2343</v>
       </c>
       <c r="G118" t="n">
-        <v>5233264.476096165</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4651,18 +3971,15 @@
         <v>10075.1308</v>
       </c>
       <c r="G119" t="n">
-        <v>5223189.345296165</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4684,18 +4001,15 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>5223199.345296165</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4717,18 +4031,15 @@
         <v>30851.461</v>
       </c>
       <c r="G121" t="n">
-        <v>5192347.884296165</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4750,18 +4061,15 @@
         <v>7171.8839</v>
       </c>
       <c r="G122" t="n">
-        <v>5192347.884296165</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4783,18 +4091,15 @@
         <v>251028.2672</v>
       </c>
       <c r="G123" t="n">
-        <v>4941319.617096165</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4816,18 +4121,15 @@
         <v>3344.481</v>
       </c>
       <c r="G124" t="n">
-        <v>4944664.098096165</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4849,18 +4151,15 @@
         <v>105107.3226</v>
       </c>
       <c r="G125" t="n">
-        <v>4839556.775496165</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4882,18 +4181,15 @@
         <v>64315.5391</v>
       </c>
       <c r="G126" t="n">
-        <v>4775241.236396166</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4915,18 +4211,15 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>4775251.236396166</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4948,18 +4241,15 @@
         <v>20</v>
       </c>
       <c r="G128" t="n">
-        <v>4775271.236396166</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4981,18 +4271,15 @@
         <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>4775261.236396166</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5014,18 +4301,15 @@
         <v>5000</v>
       </c>
       <c r="G130" t="n">
-        <v>4770261.236396166</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5047,18 +4331,15 @@
         <v>77734.0336</v>
       </c>
       <c r="G131" t="n">
-        <v>4847995.269996165</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5080,18 +4361,15 @@
         <v>5042.3785</v>
       </c>
       <c r="G132" t="n">
-        <v>4847995.269996165</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5113,18 +4391,15 @@
         <v>69256.83719999999</v>
       </c>
       <c r="G133" t="n">
-        <v>4778738.432796165</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5146,18 +4421,15 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>4778748.432796165</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5179,18 +4451,15 @@
         <v>253906.8739</v>
       </c>
       <c r="G135" t="n">
-        <v>4524841.558896165</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5212,18 +4481,15 @@
         <v>255462.144</v>
       </c>
       <c r="G136" t="n">
-        <v>4269379.414896165</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5245,18 +4511,15 @@
         <v>37181.2037</v>
       </c>
       <c r="G137" t="n">
-        <v>4306560.618596165</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5278,18 +4541,15 @@
         <v>10</v>
       </c>
       <c r="G138" t="n">
-        <v>4306570.618596165</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5311,18 +4571,15 @@
         <v>64690.2684</v>
       </c>
       <c r="G139" t="n">
-        <v>4371260.886996166</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5344,18 +4601,15 @@
         <v>120952.8497</v>
       </c>
       <c r="G140" t="n">
-        <v>4492213.736696166</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5377,18 +4631,15 @@
         <v>1732.0404</v>
       </c>
       <c r="G141" t="n">
-        <v>4493945.777096166</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5410,18 +4661,15 @@
         <v>4141.7081</v>
       </c>
       <c r="G142" t="n">
-        <v>4489804.068996166</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5443,18 +4691,15 @@
         <v>191038.0744</v>
       </c>
       <c r="G143" t="n">
-        <v>4298765.994596166</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5476,18 +4721,15 @@
         <v>18643.691270307</v>
       </c>
       <c r="G144" t="n">
-        <v>4317409.685866472</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5509,18 +4751,15 @@
         <v>438.1601</v>
       </c>
       <c r="G145" t="n">
-        <v>4317409.685866472</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
